--- a/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
@@ -1673,25 +1673,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04027407243847847</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1566386073827744</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2639833092689514</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2006840114171492</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>21.83767706155777</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04276489093899727</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1686927527189255</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2245742678642273</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2067967382213686</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>24.59274977445602</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,25 +2808,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.261524498462677</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3290709555149078</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2082113921642303</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5113946601820134</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>14.040407538414</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.5623334646224976</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.5877885818481445</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3227790594100952</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.7498889681962907</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>22.19953984022141</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3868,25 +3940,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2374654859304428</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3498514294624329</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1609757244586945</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4873043052656552</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>13.42570185661316</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1613105982542038</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2501397430896759</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1220003515481949</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.4016349066679885</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>10.0755900144577</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4964,25 +5072,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.08206069469451904</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.224407285451889</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.08620063215494156</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2864623791958013</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>8.081082999706268</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.06113775074481964</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2031368017196655</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.07447846978902817</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2472604916779461</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>7.174511253833771</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6058,25 +6202,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1085596606135368</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2795644402503967</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.204314231872559</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3294839307364425</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>55.31743168830872</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1379351764917374</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2945511639118195</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.461399555206299</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3713962526624863</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>57.48712420463562</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7152,25 +7332,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>793003</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>469.850341796875</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1230.771484375</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>890.507158870719</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>197.0652103424072</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2598912119865417</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4498991370201111</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>2.290374040603638</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5097952647745384</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>85.13069748878479</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8246,25 +8462,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.015212297439575</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.8564004898071289</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2.227837562561035</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.007577439921903</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>171.0776329040527</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>2.39837121963501</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.195747017860413</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>3.812820196151733</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.548667562659918</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>125.9488463401794</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9340,25 +9592,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.514779090881348</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.8769398331642151</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.923761248588562</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.230763621042378</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>35.21175980567932</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.013164520263672</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.7331840991973877</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.7497202754020691</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.006560738487088</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>32.72711634635925</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10434,25 +10722,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4031.81982421875</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>49.23323440551758</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>24.3879222869873</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>63.49661269877906</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>175.1310706138611</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.794214844703674</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.954781174659729</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.9678616523742676</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.339483051293922</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>38.59826028347015</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11528,25 +11852,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.207615375518799</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.735126256942749</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5264574885368347</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.098915545216646</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.03905117511749</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>335.9050903320312</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>12.80340099334717</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>6.800779819488525</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>18.32771372353986</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>163.5970950126648</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12442,13 +12802,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05938562750816345</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2146963179111481</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2983080446720123</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2436916648311211</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>33.34260582923889</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -13536,25 +13914,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04755773022770882</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1611441820859909</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5228638052940369</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2180773491853494</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>26.98979377746582</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.05598166212439537</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1833908259868622</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.4750528037548065</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2366044423175427</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>30.75951635837555</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14450,13 +14864,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03878010436892509</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1629487723112106</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3756773471832275</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1969266471783976</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>25.71431398391724</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -15364,13 +15796,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.0783500000834465</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2129963636398315</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7031290531158447</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2799107001946273</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>34.68333184719086</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -16278,13 +16728,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1979631632566452</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3724647760391235</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1430797576904297</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4449305150881935</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>12.92668133974075</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -17192,13 +17660,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3629348874092102</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4608899354934692</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2109336256980896</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6024407750220848</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>16.9095441699028</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -18106,13 +18592,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2877391576766968</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3315104246139526</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2113785445690155</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5364132340618535</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>14.14746195077896</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -19200,25 +19704,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04426438361406326</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1689838767051697</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2986845374107361</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2103910255074186</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>27.67428159713745</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.03005800023674965</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1335231214761734</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2900402843952179</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.173372432170601</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>21.72799110412598</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20294,25 +20834,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2880292534828186</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4805655777454376</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1674988716840744</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.536683569231273</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>18.62252950668335</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.08445640653371811</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2322416305541992</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.0857524648308754</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2906138443600341</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>8.43208059668541</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -21389,25 +21965,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4425105154514313</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.6001174449920654</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2724885642528534</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6652146386328486</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>25.73361396789551</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.4365796744823456</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4770066142082214</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2783949971199036</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.6607417608130619</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>18.86148899793625</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -22484,25 +23096,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4919710159301758</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.6550776362419128</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2457212656736374</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.7014064555806253</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>27.17322409152985</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2877012491226196</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3878668248653412</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1795841157436371</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5363778976827994</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>14.56982493400574</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -23581,25 +24229,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03643960133194923</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1660768240690231</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2739340364933014</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1908915957603929</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>23.29322248697281</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.03194341063499451</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1470661014318466</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2070768922567368</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1787271961258121</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>21.05894088745117</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24679,25 +25363,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.06874201446771622</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.207969918847084</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.6731992363929749</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2621869837877469</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>33.04558098316193</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.06275174766778946</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1955715119838715</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.6360709071159363</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2505029893390286</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>31.5996527671814</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25775,25 +26495,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05132215097546577</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1784412413835526</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4388777911663055</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2265439272535589</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>27.66163051128387</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.03863652050495148</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1567717045545578</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3342334926128387</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1965617473084513</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>25.06561279296875</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05258380768152056</v>
+        <v>0.05258380768152064</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1931164814476832</v>
+        <v>0.1931164814476834</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2705655001506638</v>
+        <v>0.2705655001506641</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.229311595174602</v>
+        <v>0.2293115951746022</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>33.75339946252968</v>
+        <v>33.75339946252971</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06156891765534168</v>
+        <v>0.06156891765534166</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.2124604480759507</v>
@@ -812,7 +812,7 @@
         <v>0.2481308478511724</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>36.74980970703312</v>
+        <v>36.74980970703309</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -1621,25 +1621,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02733604982495308</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1394219696521759</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2060850262641907</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1653361721613062</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>19.91695165634155</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.02736882865428925</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1387260854244232</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2024146467447281</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1654352702850551</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>19.81499493122101</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -1647,25 +1683,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0184083990752697</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1237124353647232</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1694901585578918</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1356775555324819</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>16.50585532188416</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01832523941993713</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1165253818035126</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1671385765075684</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1353707480216355</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>15.67939817905426</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -1905,19 +1977,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.759881640371885e-07</v>
+        <v>3.759881640385448e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0004837230906868916</v>
+        <v>0.0004837230906875623</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0002028953491320183</v>
+        <v>0.0002028953491319821</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0006131787374307662</v>
+        <v>0.0006131787374318722</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.02028847278845907</v>
+        <v>0.02028847278845548</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -1935,19 +2007,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>3.294069700143488e-07</v>
+        <v>3.294069700288279e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0004572570712016229</v>
+        <v>0.0004572570712113611</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001892337475239075</v>
+        <v>0.0001892337475286709</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0005739398662005879</v>
+        <v>0.0005739398662132017</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01892278658555098</v>
+        <v>0.01892278658602721</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2055,16 +2127,16 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3756283822516943</v>
+        <v>0.3756283822516942</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.4764401242648901</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2244726120985707</v>
+        <v>0.2244726120985708</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.6128852928988379</v>
+        <v>0.6128852928988378</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>20.39658243954243</v>
@@ -2535,19 +2607,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6428414765421087</v>
+        <v>0.6388807818609276</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6838394538948356</v>
+        <v>0.6821239722292882</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2763474510559982</v>
+        <v>0.2755094582709559</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8017739560138559</v>
+        <v>0.7993001825728101</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>30.2230504166501</v>
+        <v>30.14075407920246</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -2565,19 +2637,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.480011321232918</v>
+        <v>1.485065262188947</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>1.112612408596003</v>
+        <v>1.113762413276909</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.4140339267833038</v>
+        <v>0.4145842726978308</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.216557159048812</v>
+        <v>1.218632537801674</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>53.04650003275542</v>
+        <v>53.16897058115748</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -2756,25 +2828,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2670807540416718</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.307867556810379</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1998760253190994</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.516798562344819</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.26883137226105</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.283248096704483</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3820123970508575</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2158769816160202</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5322105755285994</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>16.27465039491653</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -2782,25 +2890,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1273571401834488</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.268640547990799</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1067792624235153</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3568713216040885</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>9.926338493824005</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.07833098620176315</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2049962282180786</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07877924293279648</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2798767339415035</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.644134014844894</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -3037,19 +3181,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.856452158952123e-07</v>
+        <v>3.856452159041445e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0004403976713980851</v>
+        <v>0.0004403976714042098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0001535418746055191</v>
+        <v>0.0001535418746087562</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0006210033944313126</v>
+        <v>0.0006210033944385043</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0153561754154167</v>
+        <v>0.01535617541574049</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3067,19 +3211,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>2.484125030710513e-07</v>
+        <v>2.484125030824923e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0003540606289727398</v>
+        <v>0.000354060628981233</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001270301224995518</v>
+        <v>0.0001270301225020289</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0004984099748912047</v>
+        <v>0.0004984099749026822</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01270433055984928</v>
+        <v>0.01270433056009707</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3187,19 +3331,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3926302123432279</v>
+        <v>0.3926302123432278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4153872913522682</v>
+        <v>0.415387291352268</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1770597477177767</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.6266021164528794</v>
+        <v>0.6266021164528793</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>17.45319936596956</v>
+        <v>17.45319936596955</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -3667,19 +3811,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5128947747996544</v>
+        <v>0.512708483162115</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6583320748937641</v>
+        <v>0.6581971018399635</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2411227143576247</v>
+        <v>0.2410762772226376</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.716166722767579</v>
+        <v>0.7160366493149042</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>27.56560825276511</v>
+        <v>27.55971885524547</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -3697,19 +3841,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.6508260534541394</v>
+        <v>0.6519381320837674</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.7546004822788616</v>
+        <v>0.7541463336597476</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2864715781643608</v>
+        <v>0.286525690123925</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.8067379087746772</v>
+        <v>0.8074268586588926</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>32.86578181797035</v>
+        <v>32.8583565851652</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -3888,25 +4032,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1800056099891663</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2902899086475372</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1329641342163086</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4242706800960517</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>11.44611686468124</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1731929033994675</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2599112689495087</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1253679990768433</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.4161645148249277</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>10.31225249171257</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -3914,25 +4094,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05586042255163193</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.20772485435009</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07602109760046005</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2363480961455622</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.567449659109116</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04571281373500824</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1599462330341339</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.05890919268131256</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2138055512258937</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>5.756310373544693</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -4169,19 +4385,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.485432290240653e-08</v>
+        <v>8.485432290374166e-08</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.000267600361752287</v>
+        <v>0.0002676003617539787</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.704253187272208e-05</v>
+        <v>9.704253187348625e-05</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0002912976534447309</v>
+        <v>0.0002912976534470226</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.009704731649280934</v>
+        <v>0.00970473164935735</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4199,19 +4415,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>6.542126206161126e-08</v>
+        <v>6.542126206065317e-08</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0002366269785558016</v>
+        <v>0.0002366269785537714</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>8.58107261251532e-05</v>
+        <v>8.581072612491338e-05</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0002557758042927658</v>
+        <v>0.0002557758042908929</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.008581447729605961</v>
+        <v>0.008581447729581998</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4737,19 +4953,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.535358271793092</v>
+        <v>1.409268151815393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.163646949563582</v>
+        <v>1.10601858573323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4200722959169348</v>
+        <v>0.4008013946279106</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.239095747629331</v>
+        <v>1.187126005028696</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>55.445870405956</v>
+        <v>52.46894593575222</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -4799,19 +5015,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.525003789940498</v>
+        <v>1.531936279771884</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.189935311256316</v>
+        <v>1.192128069160324</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4330911475647549</v>
+        <v>0.4339125338998154</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.234910438023948</v>
+        <v>1.237714134916413</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>57.04670645937636</v>
+        <v>57.21013404400347</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -4829,19 +5045,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.33306786614437</v>
+        <v>1.349735420158656</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>1.102692277266764</v>
+        <v>1.112604758135157</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3974794280780203</v>
+        <v>0.401418963817646</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.154585581992244</v>
+        <v>1.161781141247635</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>51.01776550279561</v>
+        <v>51.58545615275466</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -5020,25 +5236,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05649728327989578</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1838565170764923</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.06654973328113556</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2376915717477079</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>6.681481748819351</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05822308734059334</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2002695649862289</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.07411202043294907</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2412946069446919</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>7.270994782447815</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -5046,25 +5298,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03716888278722763</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.172652393579483</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06099747866392136</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1927923307272041</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.088782101869583</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04377714917063713</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1763447970151901</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.06035327166318893</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.209229895499274</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>6.244621053338051</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -5299,16 +5587,16 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07347085936513183</v>
+        <v>0.07347085936513194</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1873070084610048</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.731563211598511</v>
+        <v>1.731563211598512</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2710550854810362</v>
+        <v>0.2710550854810364</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>35.00851047484371</v>
@@ -5329,7 +5617,7 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.07674859398668618</v>
+        <v>0.07674859398668621</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.1994954768039615</v>
@@ -5897,19 +6185,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.06511226857648179</v>
+        <v>0.06538353213012311</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1786490165947659</v>
+        <v>0.1799417321668404</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>1.688268465538298</v>
+        <v>1.69091639431391</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2551710574819993</v>
+        <v>0.2557020377903217</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>33.38285363742666</v>
+        <v>33.55394260450606</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -5929,19 +6217,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06334285405652619</v>
+        <v>0.06325278700545085</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1852014897764751</v>
+        <v>0.1849376732222478</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.649102734042082</v>
+        <v>1.648307932989702</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2516800628904208</v>
+        <v>0.2515010676030041</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>35.49456084499937</v>
+        <v>35.46143370722405</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -5955,23 +6243,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 60, 'max_samples': 0.6, 'max_features': 0.5}</t>
+          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.06390768130861585</v>
+        <v>0.06743593769846606</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1838579131990641</v>
+        <v>0.1876482271410947</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>1.627232540407302</v>
+        <v>1.676032157953207</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2527996861323523</v>
+        <v>0.2596843039123968</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>35.36275902724515</v>
+        <v>35.45991693799866</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -6150,25 +6438,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06624559313058853</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1957633346319199</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.518189668655396</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2573821927223959</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>37.08969056606293</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.0815393477678299</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1910279095172882</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.815811157226562</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2855509547660975</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>34.76765155792236</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -6176,25 +6500,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04986772313714027</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1615951955318451</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6952639818191528</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2233108218092896</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>30.1453173160553</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.07525104284286499</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2004921287298203</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.8931973576545715</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2743192352768303</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>34.79344844818115</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -6429,7 +6789,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06142416231533394</v>
+        <v>0.06142416231533393</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1474922018344862</v>
@@ -6468,10 +6828,10 @@
         <v>1.757125901183277</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2342670719841222</v>
+        <v>0.2342670719841221</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>27.17247340470155</v>
+        <v>27.17247340470154</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6609,7 +6969,7 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.07317622293123764</v>
+        <v>0.07317622293123766</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0.1570778823977455</v>
@@ -6618,7 +6978,7 @@
         <v>2.004596222824576</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.2705110403130298</v>
+        <v>0.2705110403130299</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>29.1397199226518</v>
@@ -7059,19 +7419,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06351862715107828</v>
+        <v>0.06354947399463567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1554002650824181</v>
+        <v>0.1554718027271645</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.835417040819106</v>
+        <v>1.8356105469856</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2520290204541498</v>
+        <v>0.2520902100333047</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>30.65368130076037</v>
+        <v>30.66434516731316</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -7089,19 +7449,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05814379585714365</v>
+        <v>0.05916275760518708</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1487838799776682</v>
+        <v>0.1495940040671748</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>1.75405815609651</v>
+        <v>1.763447916444032</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2411302466658707</v>
+        <v>0.243233956521673</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>29.80411056442372</v>
+        <v>29.85447003042417</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -7280,25 +7640,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.08508202433586121</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2269992083311081</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.836361885070801</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2916882313976024</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>52.94162631034851</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1757808178663254</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3673194944858551</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>2.177967309951782</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.4192622304314155</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>65.88282585144043</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -7306,25 +7702,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2844502329826355</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4123527109622955</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.9491940140724182</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.5333387600602787</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>90.13751149177551</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.08139245212078094</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1992930620908737</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.8507301211357117</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2852936243956057</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>36.20864450931549</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -7559,7 +7991,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0564146775842053</v>
+        <v>0.05641467758420529</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1537440184691979</v>
@@ -7568,7 +8000,7 @@
         <v>1.722075760216315</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2375177416198742</v>
+        <v>0.2375177416198741</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>30.54932766549613</v>
@@ -7589,13 +8021,13 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05177125259518384</v>
+        <v>0.05177125259518386</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.1437549772769163</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.648687224979777</v>
+        <v>1.648687224979776</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.2275329703475605</v>
@@ -8189,19 +8621,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07240628579969882</v>
+        <v>0.07244063181129225</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1679230045993181</v>
+        <v>0.1680131510442154</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.884180244630162</v>
+        <v>1.884462641103753</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2690841611832603</v>
+        <v>0.2691479738197786</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.28452638596005</v>
+        <v>31.2971001981441</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -8219,19 +8651,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.06463122267340551</v>
+        <v>0.06477279657900006</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1626923136047328</v>
+        <v>0.1629608399975576</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>1.885550635539923</v>
+        <v>1.886862955084659</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2542267151056425</v>
+        <v>0.2545050030529853</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>30.44984418875198</v>
+        <v>30.49511844404848</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -8410,25 +8842,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06617365032434464</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2081348299980164</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.368758320808411</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2572423960476667</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>57.20034837722778</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1067457422614098</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2638147473335266</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.818794727325439</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3267196692294631</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>67.1557605266571</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -8436,25 +8904,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04946786910295486</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1606651991605759</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5527150630950928</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2224137340699869</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>28.46785485744476</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.08772297948598862</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2380416095256805</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.3859944343566895</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2961806534633696</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>50.53036212921143</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -8701,7 +9205,7 @@
         <v>0.8175052534159953</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>17.88305238096145</v>
+        <v>17.88305238096144</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8719,19 +9223,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.6708740038473108</v>
+        <v>0.6708740038473106</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3549047157999201</v>
+        <v>0.3549047157999202</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.623648199135455</v>
+        <v>0.6236481991354548</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.8190689860123571</v>
+        <v>0.8190689860123569</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>17.83789245572382</v>
+        <v>17.83789245572384</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9345,23 +9849,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 130, 'max_samples': 0.8, 'max_features': 0.6}</t>
+          <t>{'n_estimators': 100, 'max_samples': 1.0, 'max_features': 0.6}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.6875521683263592</v>
+        <v>0.694185327637305</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.3869652387854607</v>
+        <v>0.3795403074854222</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.6317989340928857</v>
+        <v>0.6333846418807281</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.8291876556765418</v>
+        <v>0.8331778487437751</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>19.08887844107318</v>
+        <v>18.76951376410237</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -9540,25 +10044,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.7760469317436218</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4969831705093384</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6901900172233582</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.8809352596778164</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>22.9307159781456</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.9008345007896423</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.5674338936805725</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.7526904940605164</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.9491230166788931</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>25.41487812995911</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -9566,25 +10106,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.4863475561141968</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.512515127658844</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.4936191439628601</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.6973862316637723</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>22.8033572435379</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.4583840072154999</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4673917591571808</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.4840605556964874</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.6770406244942027</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>20.61184346675873</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -9819,16 +10395,16 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6477380571432917</v>
+        <v>0.6477380571432916</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.3470818255292122</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6406556666378996</v>
+        <v>0.6406556666378993</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8048217548894238</v>
+        <v>0.8048217548894236</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>17.69326257051894</v>
@@ -9855,7 +10431,7 @@
         <v>0.3623570503815428</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6111783801815242</v>
+        <v>0.6111783801815243</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.7625667799204702</v>
@@ -10670,25 +11246,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.715087354183197</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4306710958480835</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7032532095909119</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.8456283782981724</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>21.16528451442719</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.7579759359359741</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3957212567329407</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.6874088048934937</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.8706181343941637</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>19.20430064201355</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -10696,25 +11308,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.5403732657432556</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4848618805408478</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6059618592262268</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.7351008541304082</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>21.39575630426407</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.3613406717777252</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.3968012928962708</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.4787616431713104</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.6011161882512608</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>17.77577102184296</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -10949,7 +11597,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5551309620154475</v>
+        <v>0.5551309620154472</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.3264350403149848</v>
@@ -10958,7 +11606,7 @@
         <v>0.3144413285326214</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7450711120527004</v>
+        <v>0.7450711120527002</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>16.61751594870133</v>
@@ -10985,13 +11633,13 @@
         <v>0.328881965107142</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3155677821876571</v>
+        <v>0.315567782187657</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.7462209638077557</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>16.71707216891193</v>
+        <v>16.71707216891194</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -11543,23 +12191,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+          <t>{'n_estimators': 250, 'loss': 'linear', 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.7088604031212032</v>
+        <v>0.7007184929396262</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.4145517139150757</v>
+        <v>0.373274972679894</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.3665732041866465</v>
+        <v>0.3540747355120138</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.8419384794159269</v>
+        <v>0.8370892980677905</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>19.05247352467925</v>
+        <v>17.81541984114628</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -11579,19 +12227,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5880475844307583</v>
+        <v>0.5880944694733466</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3463584166033274</v>
+        <v>0.3463651385876927</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3300097277778344</v>
+        <v>0.3300183178704634</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7668426073391843</v>
+        <v>0.7668731769160704</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.23512218058434</v>
+        <v>17.23513393656149</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -11609,19 +12257,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.6037274747277542</v>
+        <v>0.6034965814550428</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.348617683194374</v>
+        <v>0.3485748758339832</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3302367711886445</v>
+        <v>0.3301732695956008</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.7769990184857084</v>
+        <v>0.7768504241197547</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>17.22300470154517</v>
+        <v>17.22197341552552</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -11800,25 +12448,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.7567207813262939</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3849770128726959</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3730822801589966</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.8698969946644798</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>18.3367058634758</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.7057036161422729</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.4458471238613129</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3830723762512207</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.840061674011065</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>20.80069482326508</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -11826,25 +12510,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2990583181381226</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.285831481218338</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1919155716896057</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.5468622478633194</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>12.5150740146637</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.3085441887378693</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.3997705280780792</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2179728895425797</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.555467540669902</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>16.85176491737366</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -12091,7 +12811,7 @@
         <v>0.2562256634382433</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>32.19187518884223</v>
+        <v>32.19187518884225</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12565,19 +13285,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02182693575454386</v>
+        <v>0.02162097434165188</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1159424693145651</v>
+        <v>0.1153876196056466</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1623290346885611</v>
+        <v>0.1615183278849749</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1477394184181861</v>
+        <v>0.1470407234124339</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.64407882699846</v>
+        <v>16.54149699952305</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -12750,13 +13470,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02637754194438457</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1295563876628876</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1983630061149597</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1624116435000415</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>18.5084193944931</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -12776,13 +13514,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0098566934466362</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.08166670799255371</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1119758784770966</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.09928088157664697</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.96727028489113</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -13011,13 +13767,13 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05065871097307249</v>
+        <v>0.05065871097307246</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1699996749685501</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.308640691155827</v>
+        <v>0.3086406911558268</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.225074900806537</v>
@@ -13041,19 +13797,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05223500173324198</v>
+        <v>0.05223500173324203</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1738676185275606</v>
+        <v>0.1738676185275607</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>0.3043408578297899</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2285497795519435</v>
+        <v>0.2285497795519436</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>30.26993293348402</v>
+        <v>30.26993293348403</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -13164,7 +13920,7 @@
         <v>0.01783864106633838</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.09332451110526462</v>
+        <v>0.0933245111052646</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.251554732157675</v>
@@ -13194,7 +13950,7 @@
         <v>0.01805684550562795</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.09626525776887705</v>
+        <v>0.09626525776887707</v>
       </c>
       <c r="N10" s="8" t="n">
         <v>0.251698883922178</v>
@@ -13862,25 +14618,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03795976936817169</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1525033861398697</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4705651700496674</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1948326701766716</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>26.24450325965881</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.03376106172800064</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1344843357801437</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.4581624269485474</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1837418344525836</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>23.66623729467392</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -13888,25 +14680,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02423194237053394</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1178504377603531</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1840017288923264</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1556661246724346</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>17.30176955461502</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.0215039849281311</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1104098111391068</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1536483019590378</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1466423708487117</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>15.68930447101593</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -14141,19 +14969,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4512416794016419</v>
+        <v>0.4512416794016428</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5657053493225597</v>
+        <v>0.5657053493225602</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9463458404808465</v>
+        <v>0.9463458404808475</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6717452488865417</v>
+        <v>0.6717452488865424</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>83.55960900371842</v>
+        <v>83.55960900371848</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14812,13 +15640,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02194736525416374</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1175803765654564</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2508431971073151</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1481464317969344</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>19.49614882469177</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -14838,13 +15684,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03792789578437805</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.169702559709549</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2378892153501511</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1947508556704644</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.5937625169754</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -15073,19 +15937,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3204727804949942</v>
+        <v>0.3204727804950009</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4616101992012521</v>
+        <v>0.4616101992012571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9219148781468827</v>
+        <v>0.9219148781468944</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.566103153581566</v>
+        <v>0.566103153581572</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>70.7974192917042</v>
+        <v>70.79741929170484</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -15196,7 +16060,7 @@
         <v>0.3424781131805948</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1541045804467833</v>
+        <v>0.1541045804467832</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>20.39001468262689</v>
@@ -15515,19 +16379,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01567380358270498</v>
+        <v>0.0152971445347979</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09954744631727244</v>
+        <v>0.09849872367295984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2609466989436864</v>
+        <v>0.2553516197020844</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1251950621338756</v>
+        <v>0.1236816256959695</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.91057351381076</v>
+        <v>17.81409153548186</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -15744,13 +16608,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0517437718808651</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1600802093744278</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4967191219329834</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.227472573909175</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>27.59850323200226</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -15770,13 +16652,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01785369403660297</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1038466021418571</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1717582195997238</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1336177160282385</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>15.76379984617233</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16005,13 +16905,13 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.484098524186745</v>
+        <v>2.484098524186746</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>1.352197168205247</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.498886622576008</v>
+        <v>0.4988866225760079</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1.576102320341781</v>
@@ -16491,19 +17391,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.092251577540119</v>
+        <v>1.071961498971351</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8240683450088592</v>
+        <v>0.8171307512365686</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2960550903122208</v>
+        <v>0.2933263936887342</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.045108404683514</v>
+        <v>1.035355735470351</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>39.55375768738833</v>
+        <v>38.99686765551301</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -16676,13 +17576,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05579258874058723</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1986945867538452</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.07241837680339813</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2362045485179894</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7.21464604139328</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -16702,13 +17620,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04172956943511963</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1755532622337341</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06249072775244713</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2042781668096706</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.203464046120644</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16937,10 +17873,10 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.538777535822787</v>
+        <v>2.538777535822788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.33683181133731</v>
+        <v>1.336831811337311</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.5231691445144733</v>
@@ -16949,7 +17885,7 @@
         <v>1.593354177771781</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>66.76209662868263</v>
+        <v>66.7620966286826</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17379,19 +18315,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08327183775156191</v>
+        <v>0.09143073326927832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2295190349834344</v>
+        <v>0.2369344798203857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08719690046693811</v>
+        <v>0.0896220381443758</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2885686014651662</v>
+        <v>0.3023751531943032</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>9.267963550979742</v>
+        <v>9.564534787762669</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -17423,19 +18359,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.891948755482496</v>
+        <v>0.8875663970687493</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8600539149063346</v>
+        <v>0.8556864567432448</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3163349105584744</v>
+        <v>0.3149807691214926</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9444303867848047</v>
+        <v>0.9421074233168685</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>39.18054733769996</v>
+        <v>39.03957302731278</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -17608,13 +18544,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1494839638471603</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.259036123752594</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1217478513717651</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3866315608523965</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.32296121120453</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -17634,13 +18588,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05461011454463005</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.202062115073204</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07486121356487274</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2336880710362214</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.322853058576584</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -17869,19 +18841,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.628996978939523</v>
+        <v>4.628996978939546</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.699153902367107</v>
+        <v>1.699153902367111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7070140914754665</v>
+        <v>0.7070140914754688</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>2.151510394801643</v>
+        <v>2.151510394801649</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>75.96923921471965</v>
+        <v>75.96923921471982</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18311,19 +19283,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2634614783085892</v>
+        <v>0.2647897585544831</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3253244780563104</v>
+        <v>0.3369644321732165</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1864466516628304</v>
+        <v>0.1950984927786334</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5132849874178955</v>
+        <v>0.5145772619874328</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>14.33047690141158</v>
+        <v>14.73505882435994</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -18540,13 +19512,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2709657251834869</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3214711248874664</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2050397992134094</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5205436823010025</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.81336003541946</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -18566,13 +19556,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.08817869424819946</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2268739342689514</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.0896955281496048</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2969489758328853</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.469158411026001</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -18801,19 +19809,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04341458589039742</v>
+        <v>0.04341458589039741</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1445428511513713</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2142102421693711</v>
+        <v>0.2142102421693713</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2083616708763812</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>22.23480074343059</v>
+        <v>22.2348007434306</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18831,19 +19839,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.04961951110629016</v>
+        <v>0.04961951110629014</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1533051782731318</v>
+        <v>0.1533051782731317</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2240312432950077</v>
+        <v>0.2240312432950073</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.2227543739330165</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>23.58102481995901</v>
+        <v>23.58102481995899</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -18960,7 +19968,7 @@
         <v>0.1699578506953413</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1556474480025591</v>
+        <v>0.1556474480025592</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>15.97119048201349</v>
@@ -19399,19 +20407,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.006332943092092041</v>
+        <v>0.006951623041562196</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.06264152982799789</v>
+        <v>0.06488543629955078</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.104872737796837</v>
+        <v>0.1091830806629225</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.07957979072661628</v>
+        <v>0.08337639379082185</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>9.930374671445247</v>
+        <v>10.21145728269644</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -19652,25 +20660,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03322118893265724</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1414065957069397</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3330565392971039</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1822668069963844</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>22.76069819927216</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.01737884804606438</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.09557728469371796</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2293814569711685</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1318288589272636</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>15.90847969055176</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -19678,25 +20722,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.00818029697984457</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.06862854957580566</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08970505744218826</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.09044499422214902</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>9.261932224035263</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01338560879230499</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.08518577367067337</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1115127876400948</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.115696191779613</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>11.08810529112816</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -19931,19 +21011,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2071804868137175</v>
+        <v>0.2071804868137176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3791868153695973</v>
+        <v>0.3791868153695975</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.1328792079269506</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4551708325603888</v>
+        <v>0.4551708325603889</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>14.34147049008952</v>
+        <v>14.34147049008953</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -19961,16 +21041,16 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.2294224032125147</v>
+        <v>0.2294224032125146</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3858782181613516</v>
+        <v>0.3858782181613517</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>0.1364640008718344</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.4789805875111378</v>
+        <v>0.4789805875111377</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>15.15065008730068</v>
@@ -20529,19 +21609,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.03440634102391763</v>
+        <v>0.0337881099646135</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1536864585802845</v>
+        <v>0.1509539369536144</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.0544629902195975</v>
+        <v>0.05345304143674173</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.1854894633770814</v>
+        <v>0.1838154236309171</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>5.552273047528857</v>
+        <v>5.45167621042702</v>
       </c>
     </row>
     <row r="18" ht="42.75" customHeight="1">
@@ -20782,25 +21862,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06026884540915489</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1915303617715836</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.07203442603349686</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2454971393095139</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>6.96130245923996</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05740121379494667</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1959397494792938</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.07189146429300308</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2395855041419382</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>7.114569842815399</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -20808,25 +21924,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03782704472541809</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1698725819587708</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06029487401247025</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1944917600450417</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.00341409444809</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04381696507334709</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.184445858001709</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.06525996327400208</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2093250225686052</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>6.519182771444321</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -21065,7 +22217,7 @@
         <v>0.262854712838441</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3975265864081265</v>
+        <v>0.3975265864081266</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.1777044543561136</v>
@@ -21092,19 +22244,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.3189140741720599</v>
+        <v>0.3189140741720597</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4197658409398502</v>
+        <v>0.41976584093985</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>0.1755740805081219</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.5647247773668691</v>
+        <v>0.564724777366869</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>18.41220921545399</v>
+        <v>18.41220921545398</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -21656,23 +22808,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 200, 'loss': 'linear', 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.1713619000821185</v>
+        <v>0.1679984319384752</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.209585884340086</v>
+        <v>0.1983966369711258</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.1527654655823316</v>
+        <v>0.1483501810481498</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.4139588144756898</v>
+        <v>0.4098761177947249</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>9.65376481932603</v>
+        <v>9.221108639338595</v>
       </c>
     </row>
     <row r="18" ht="42.75" customHeight="1">
@@ -21913,25 +23065,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2670885622501373</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3176352977752686</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2024473398923874</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5168061166918764</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.6867344379425</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2656004428863525</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3256699740886688</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2039687484502792</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5153643787519201</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>13.98976594209671</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -21939,25 +23127,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.09313448518514633</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2408904135227203</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.09496612101793289</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3051794311305176</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.976512402296066</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.08840176463127136</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.235616147518158</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.0924072340130806</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.29732434248018</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>8.789518475532532</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -22193,19 +23417,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2725582258735633</v>
+        <v>0.2725582258735629</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3907669164090621</v>
+        <v>0.3907669164090618</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.146870645889729</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5220710927388752</v>
+        <v>0.5220710927388749</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.17481530244853</v>
+        <v>16.17481530244852</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -22223,19 +23447,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.3750051203792896</v>
+        <v>0.3750051203792898</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4555701442865698</v>
+        <v>0.4555701442865699</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1676518601856147</v>
+        <v>0.1676518601856148</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.6123766164537062</v>
+        <v>0.6123766164537063</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>19.41860937348724</v>
+        <v>19.41860937348725</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -23044,25 +24268,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1510717123746872</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2624574899673462</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1229183152318001</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3886794468127781</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.44742837548256</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1491155028343201</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2577824294567108</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1213574931025505</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3861547653911837</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>10.27905866503716</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -23070,25 +24330,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05880467593669891</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2090327143669128</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07736504077911377</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2424967544869393</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.572399079799652</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05930515006184578</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2103250324726105</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07785610854625702</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2435264873927388</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.617320865392685</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -23326,19 +24622,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.000454163558507767</v>
+        <v>0.0004541635585077714</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.0177410220189235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02508164349120531</v>
+        <v>0.02508164349120522</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.02131111349760418</v>
+        <v>0.02131111349760428</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>2.541817570878555</v>
+        <v>2.541817570878547</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23356,19 +24652,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0004379589035886209</v>
+        <v>0.0004379589035886533</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.01747269233834611</v>
+        <v>0.01747269233834693</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.02464960645942961</v>
+        <v>0.02464960645943084</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.02092746768217839</v>
+        <v>0.02092746768217917</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>2.492702097003064</v>
+        <v>2.492702097003186</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -23476,7 +24772,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.01753450754319741</v>
+        <v>0.01753450754319742</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1138704162486252</v>
@@ -23956,19 +25252,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03095186649503184</v>
+        <v>0.03096373287861149</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1423203756508195</v>
+        <v>0.1423216088232787</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1911212221545958</v>
+        <v>0.1911608771185004</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1759314255470916</v>
+        <v>0.1759651467723409</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.32070739841324</v>
+        <v>20.32083164344284</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -23986,19 +25282,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05220827260775346</v>
+        <v>0.05220962381032161</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1843958876836549</v>
+        <v>0.184300675196925</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2349011733408653</v>
+        <v>0.2347255992660608</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.228491296568936</v>
+        <v>0.2284942533420077</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>27.27070808397674</v>
+        <v>27.25294488314113</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -24177,25 +25473,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02718575857579708</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1369045078754425</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2006592750549316</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1648810437127236</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>19.55019235610962</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.02761807665228844</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1409533321857452</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2093259990215302</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1661868726833995</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>20.13949453830719</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -24203,25 +25535,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02227164059877396</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1315842270851135</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.189018040895462</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1492368607240649</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>17.60239601135254</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01770392060279846</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1170323938131332</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1667130291461945</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1330560806682598</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>15.74472635984421</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -24460,19 +25828,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02758662928970269</v>
+        <v>0.02758662928970261</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1321066382779749</v>
+        <v>0.1321066382779747</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.2535926720411364</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1660922312743817</v>
+        <v>0.1660922312743814</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>23.31617029553502</v>
+        <v>23.31617029553498</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -24493,16 +25861,16 @@
         <v>0.02469680091046635</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1280144974433279</v>
+        <v>0.128014497443328</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2623086816109574</v>
+        <v>0.2623086816109592</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.1571521584658205</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>22.73841995691788</v>
+        <v>22.73841995691793</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -25120,19 +26488,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05494308724028636</v>
+        <v>0.05492127287835195</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.185180150581148</v>
+        <v>0.1844947906429837</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.4995232881526405</v>
+        <v>0.505058315099319</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2343994181739502</v>
+        <v>0.2343528810967596</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>31.09790214434306</v>
+        <v>30.92079881806597</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -25311,25 +26679,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05183588340878487</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1795108765363693</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5518321394920349</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2276749512106786</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>29.89296317100525</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05327447131276131</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1812340468168259</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.559268057346344</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2308126324808963</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>30.09034991264343</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -25337,25 +26741,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03626182675361633</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1599865555763245</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2807390689849854</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1904253836903482</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.42765182256699</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03670848160982132</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1625800430774689</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2844483256340027</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1915945761492776</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>23.77424240112305</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -25592,19 +27032,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01870697751576589</v>
+        <v>0.01870697751576579</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09457110804069729</v>
+        <v>0.09457110804069753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1348619671304635</v>
+        <v>0.1348619671304651</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1367734532567116</v>
+        <v>0.1367734532567113</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>14.10740453360395</v>
+        <v>14.10740453360404</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25622,19 +27062,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.01811890467081841</v>
+        <v>0.01811890467081843</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.09485367532387184</v>
+        <v>0.09485367532387191</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1325752997805906</v>
+        <v>0.1325752997805909</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1346064807905563</v>
+        <v>0.1346064807905564</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>13.89687004746659</v>
+        <v>13.89687004746662</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -25742,7 +27182,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04473895955258214</v>
+        <v>0.04473895955258213</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1662147077828602</v>
@@ -25754,7 +27194,7 @@
         <v>0.2115158612316867</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>26.72563458152777</v>
+        <v>26.72563458152776</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -26160,19 +27600,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0567613256580451</v>
+        <v>0.05080937779688396</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1977662709026375</v>
+        <v>0.1887853419979942</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3218763858060182</v>
+        <v>0.3083657179402176</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.238246354973261</v>
+        <v>0.2254093560544548</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>32.40772645616557</v>
+        <v>30.77584854139009</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -26222,19 +27662,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08180434792288721</v>
+        <v>0.08172903377127574</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2299867906279296</v>
+        <v>0.2298529915915239</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3406254520931116</v>
+        <v>0.3404410507927028</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2860145938984359</v>
+        <v>0.2858829022017157</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>38.25232490438923</v>
+        <v>38.22528380575747</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -26252,19 +27692,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.04712310601228632</v>
+        <v>0.04683589470491599</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1751933075452984</v>
+        <v>0.1740511581673178</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3233323935907733</v>
+        <v>0.3201160742389763</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2170785710573163</v>
+        <v>0.2164160222925188</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>28.20009800463962</v>
+        <v>28.00661405467287</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -26443,25 +27883,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04031135141849518</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1528923660516739</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3531070053577423</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2007768697297953</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>24.40304458141327</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.04142849519848824</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1583081185817719</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3577316403388977</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2035399105789531</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>25.20909607410431</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -26469,25 +27945,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0334077924489975</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1560614258050919</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2551906406879425</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.182777986773565</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>21.95613831281662</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03133514150977135</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1456320881843567</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2425875812768936</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1770173480475045</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>20.62210887670517</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">

--- a/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
@@ -883,25 +883,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>21.40085768363254</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -971,25 +1007,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03763383958895779</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1504992981222304</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1945955457147209</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1939944318503956</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>21.55982312399258</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.03763832135576382</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1504784811858911</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1945501714557011</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1940059827834281</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>21.55630787268383</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -1513,25 +1585,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03247084585778274</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.14500544422009</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.194482311678487</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1801966865893564</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>20.83194218664812</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.032444243680351</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1459493802728665</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1959501747702642</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.18012285718462</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>20.9885148885057</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -2039,7 +2147,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2603101458838184</v>
+        <v>0.2603101458838185</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.3349309347784437</v>
@@ -2090,25 +2198,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.2017972742216</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -2178,25 +2322,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.09335983032898311</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2734156622904971</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1184351786123934</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3055484091416336</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.56681897433462</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2232536813992681</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3744445784121971</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1446306864402369</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4724972818961694</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>14.84748623826422</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -2483,19 +2663,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7288518946555443</v>
+        <v>0.7285204130674715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6703902593575749</v>
+        <v>0.6702308464871655</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.262099263658169</v>
+        <v>0.262048191953425</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8537282323172547</v>
+        <v>0.8535340725873054</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>30.62245653428285</v>
+        <v>30.61507278387143</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -2513,19 +2693,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.518423526004867</v>
+        <v>1.525589412402852</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.121641543232417</v>
+        <v>1.123712891436993</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.4517855055236309</v>
+        <v>0.4521518977589437</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.232243290103406</v>
+        <v>1.235147526574398</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>54.14205711186051</v>
+        <v>54.23452281383773</v>
       </c>
     </row>
     <row r="17">
@@ -2720,25 +2900,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.6014033269205097</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.7292374133129891</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3183359447703891</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7755019838275784</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.17444457366573</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>2.203781807061709</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>1.275860654100685</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4821651652836991</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>1.484513996923474</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>72.72598412877075</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -3294,25 +3510,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.02166239305382</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -3382,25 +3634,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.09643960375608361</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2639106313830122</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1081264351601445</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3105472649309338</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.0513058029253</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3082943635388047</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3997470928835576</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1601350746143982</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5552426168251179</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>17.18264508710619</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -3687,19 +3975,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6407644280901402</v>
+        <v>0.6402876122702008</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7267320493760376</v>
+        <v>0.7262613562211198</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2632302327139834</v>
+        <v>0.2630444318949212</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8004776249778255</v>
+        <v>0.8001797374778999</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>30.84491233256771</v>
+        <v>30.82192146016903</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -3717,19 +4005,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.8693217373815388</v>
+        <v>0.8669969666837282</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.8798480391533173</v>
+        <v>0.8776946555089102</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3322059642178516</v>
+        <v>0.3309285447865221</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.9323742474894611</v>
+        <v>0.9311267189183909</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>39.51663012708345</v>
+        <v>39.36035656409052</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -3924,25 +4212,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>5.017716497279014</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>2.147651385482959</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.8028543783757761</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>2.240026003705987</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>139.7471241570068</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>1.279615805339884</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.9762817320509301</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3683686742077462</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>1.131201045499819</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>49.19097794003034</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -4450,16 +4774,16 @@
         <v>0.07166922339076984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2203354196705581</v>
+        <v>0.220335419670558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07778631791974967</v>
+        <v>0.07778631791974966</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0.2677110819349282</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.014832459161294</v>
+        <v>8.014832459161292</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -4498,25 +4822,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.834417109646166</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -4586,25 +4946,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06639747858404663</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2151285276866355</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.07714507823956784</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2576770819922615</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>8.142411052282148</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3561955119100291</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4765276134986741</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1772843426664136</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5968211724713099</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>16.57446021350125</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -4891,19 +5287,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.425234890652336</v>
+        <v>1.425060373737305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.129211561857197</v>
+        <v>1.129290793750326</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4128200073701404</v>
+        <v>0.4128367367117209</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.193832019445088</v>
+        <v>1.193758926139321</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>54.49095353730943</v>
+        <v>54.48904809017539</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -4921,19 +5317,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.796330914534241</v>
+        <v>1.796890883703194</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.251141325635457</v>
+        <v>1.251459378994552</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.4499393220299189</v>
+        <v>0.4500456775489325</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.340272701555262</v>
+        <v>1.340481586484199</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>60.99287562293715</v>
+        <v>61.00749910423838</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -5128,25 +5524,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.144971783824377</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.9780075685174017</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3474235202912341</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.070033543317394</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>43.86579806774413</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.7028819507798472</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.6798555195809703</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2448619062404099</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8383805524818948</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>30.72969510121753</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -5679,7 +6111,7 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.07529817343790175</v>
+        <v>0.07529817343790174</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.2106264075853851</v>
@@ -5688,7 +6120,7 @@
         <v>1.671535171137625</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2744051264789012</v>
+        <v>0.2744051264789011</v>
       </c>
       <c r="P8" s="8" t="n">
         <v>39.1047682683542</v>
@@ -5700,25 +6132,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06859894567387627</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2055512775088583</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.556526981460877</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2619140043485195</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>38.85695434189066</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06859894567387627</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2055512775088583</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.556526981460877</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2619140043485195</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>38.85695434189066</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -5788,25 +6256,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4193856260152439</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5973340539100465</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.647599896552836</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>200</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.4014295826425991</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5821098939100463</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9455999238114763</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6335847083402496</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>182.5663168470839</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -6330,25 +6834,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.07484681951638376</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2134170232314372</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.644640430905179</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2735814677868071</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>39.618228844836</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.07484681951638376</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2134170232314372</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.644640430905179</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2735814677868071</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>39.618228844836</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -6851,19 +7391,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.068034081996007</v>
+        <v>0.06803408199600751</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1510346352538135</v>
+        <v>0.1510346352538128</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.911934340231288</v>
+        <v>1.911934340231296</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2608334372660204</v>
+        <v>0.2608334372660214</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>28.99310064400609</v>
+        <v>28.99310064400592</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -6881,19 +7421,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.05844030624791088</v>
+        <v>0.05844830941260121</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1510344896520399</v>
+        <v>0.151034906072555</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>1.790933970661559</v>
+        <v>1.791085162325941</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2417442993079896</v>
+        <v>0.24176085169564</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>29.97724279792962</v>
+        <v>29.97557889694926</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -6902,25 +7442,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05986187363128842</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1511563789635068</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.702263679144231</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2446668625525092</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.16683562275372</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06230538375834057</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1571840546752714</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.783102039701544</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2496104640401531</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>31.52625265009917</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -6990,25 +7566,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>4811.977110532675</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>59.10480237912292</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>215.3769136619649</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>69.36841579950256</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>195.0635171818143</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04990420005153796</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1690775027505986</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.485266414210569</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2233924798455355</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>35.34918024308288</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -7295,19 +7907,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.06126612685079309</v>
+        <v>0.06120850743249217</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1516692536732945</v>
+        <v>0.1514899843688466</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.743782951037936</v>
+        <v>1.743018713353517</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2475199524296841</v>
+        <v>0.2474035315683512</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>30.18733607170753</v>
+        <v>30.161191423505</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -7532,25 +8144,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05692547314024313</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1591915327978086</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.647364282666746</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2385905973424836</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>31.55766289590066</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05083991687755052</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1455042699550831</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.599666454997916</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2254770872562233</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>29.79174019936112</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -8056,7 +8704,7 @@
         <v>0.05862924273005395</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1565483564764036</v>
+        <v>0.1565483564764035</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1.754941924576143</v>
@@ -8083,19 +8731,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.05833623193038769</v>
+        <v>0.0583362319303875</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1552476342736622</v>
+        <v>0.1552476342736649</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>1.695777486278822</v>
+        <v>1.695777486278808</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2415289463612751</v>
+        <v>0.2415289463612747</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>30.3137224845293</v>
+        <v>30.31372248453003</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -8104,25 +8752,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.09523579057937015</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1860972853777647</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.072632686313288</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3086029659276951</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>31.71909051771148</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'random', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 70, 'max_features': 'log2', 'max_depth': 16, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1103032197029432</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2389141386875211</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>2.109518864994992</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3321192853523313</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>39.73773633687732</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -8192,25 +8876,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3858900725342742</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5907627481667352</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.176503833387134</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6212005091226779</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>164.1752082151972</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.6842141170941715</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.6318760185563018</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>2.002592956433329</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.8271723623853564</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>118.1620012892488</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -8497,19 +9217,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.08040994066183411</v>
+        <v>0.08043257895647023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1756572370840546</v>
+        <v>0.1757303729550923</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.979075882828865</v>
+        <v>1.979208351297212</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2835664660389767</v>
+        <v>0.2836063803169284</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>31.52801548739206</v>
+        <v>31.53715062846741</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -8734,25 +9454,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06477210030757304</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1713811898496335</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.757976072222</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.254503635155911</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.12915789503808</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05827404846741133</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.163183969490677</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.756983062863264</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2414001832381478</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>31.19546928112744</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -9306,25 +10062,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7489022261507635</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3833229294343239</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6568337742657995</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8653913716641526</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>18.57168043920147</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.7489022261507635</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3833229294343239</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6568337742657995</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.8653913716641526</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>18.57168043920147</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -9394,25 +10186,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.58905079044966</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.485701849945823</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.566914644169077</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>200</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 2000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 0.15, 'fit_intercept': False, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>125.1503507125685</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>9.510532986507542</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>4.852911560285423</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>11.18706175510659</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>131.081905681019</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -9729,19 +10557,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.7022911417240845</v>
+        <v>0.7022770420593821</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.3492693154576142</v>
+        <v>0.3492444202742584</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.636329412348012</v>
+        <v>0.6363191439661021</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.8380281270483017</v>
+        <v>0.8380197146006663</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>17.51787010502389</v>
+        <v>17.51694657162223</v>
       </c>
     </row>
     <row r="17">
@@ -9936,25 +10764,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.6701166026516419</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3700900042554964</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6280550073787261</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.8186065004943718</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>18.45698402398672</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.6762162164075802</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.363929605783777</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6283808218570994</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8223236688844486</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>18.19305588740395</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -10508,25 +11372,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7071717854332346</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4318818738126662</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6634360082505488</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8409350661217753</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>20.92225005405011</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.6915869264325225</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.468374383415217</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6607284450859555</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.8316170551597186</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>22.3845536474005</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -10596,25 +11496,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>285.2743243458844</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>15.09827344545834</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>9.198632504130543</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>16.8900658478848</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>149.9069714961325</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>5.905237250956609</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.266072639036602</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9503591857139283</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.43006939221015</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>147.3400253498036</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -11138,25 +12074,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.6821118226234973</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.4076763987794984</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6705056708900476</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.8259006130422094</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>20.16848093984773</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.6234993670634158</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3676063867349738</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6084047968119913</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7896197610644099</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>18.54238445159354</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -11662,7 +12634,7 @@
         <v>0.687458207097029</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.358621450907958</v>
+        <v>0.3586214509079579</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0.3534234486735126</v>
@@ -11671,7 +12643,7 @@
         <v>0.8291309951370948</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.50143676450135</v>
+        <v>17.50143676450134</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -11710,25 +12682,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.672366185836622</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4596657211954301</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3795317704553525</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8199793813484715</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.56715269209275</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.7563544333389681</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.42892628093809</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3811458218663171</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.8696863994216353</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>20.57665236034062</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -11798,25 +12806,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5421385820083997</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3246346341398593</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3105415409511844</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.7363006057368143</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>16.66805514719914</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>6.61763668584692</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.501593190320899</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.039003823492317</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.572476760992588</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>174.0271719393158</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -12340,25 +13384,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5758379768200454</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3742812446145128</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3359811207155414</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7588398887908078</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>18.58659158997278</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.6598130188278361</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.4134751354274766</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.360841132675365</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8122887533555023</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>20.24196947614101</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -12843,19 +13923,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02864069505868423</v>
+        <v>0.02864069505868435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1329350362988909</v>
+        <v>0.1329350362988916</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1801718323778417</v>
+        <v>0.1801718323778423</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1692356199465238</v>
+        <v>0.1692356199465241</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>18.88387974619471</v>
+        <v>18.88387974619481</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -12876,13 +13956,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -12946,13 +14044,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03569713729591532</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1445734732232896</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1859402920328705</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1889368606066993</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>20.58810486503038</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -13193,23 +14309,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.02729512047976642</v>
+        <v>0.02523495380750248</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1333695453005001</v>
+        <v>0.1304463488499086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1923161436108864</v>
+        <v>0.1858022605805723</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1652123496587541</v>
+        <v>0.1588551346589164</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>19.25768244315277</v>
+        <v>18.95389729990687</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -13362,13 +14478,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02778150037787732</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1319729535441178</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1807014114008922</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1666778340928311</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>19.1316643248931</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -13829,7 +14963,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05095493306554961</v>
+        <v>0.0509549330655496</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.1753641168787097</v>
@@ -13838,7 +14972,7 @@
         <v>0.4731729194204938</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2257319938899881</v>
+        <v>0.225731993889988</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>29.61545453512056</v>
@@ -13880,25 +15014,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.02689824965358115</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1269589042499646</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3224610133514452</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1640068585565285</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>22.46163430177055</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.89228775050308</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -13968,25 +15138,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04368284005355472</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1614177373331092</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2982678972472317</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2090044019956391</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>27.78409142910181</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04368432577610153</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1614203752158277</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2982881771612452</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2090079562507168</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>27.78501467164678</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -14273,19 +15479,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.02047109806224867</v>
+        <v>0.02055118459208877</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.11129477046014</v>
+        <v>0.1115093509713713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.259906047247738</v>
+        <v>0.2615719614222713</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1430772450889682</v>
+        <v>0.14335684354815</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>20.00253804073059</v>
+        <v>20.03360725699144</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -14303,19 +15509,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.01834165436568293</v>
+        <v>0.01837148092169469</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1072098611417043</v>
+        <v>0.107171755411987</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.2336852955232266</v>
+        <v>0.2339222551033676</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.1354313640398077</v>
+        <v>0.1355414361798439</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>19.13757838100035</v>
+        <v>19.12929197660739</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -14510,25 +15716,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03794521105237865</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1495221756607202</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3836669837846137</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1947953055193545</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>25.85661410879682</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.03784896384818334</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1491583366869997</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3798236162997524</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1945481016308906</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>25.79848454064602</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -15013,19 +16255,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03225559908514496</v>
+        <v>0.0322555990851449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1354983242371197</v>
+        <v>0.1354983242371196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2719779129115447</v>
+        <v>0.2719779129115446</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1795984384262429</v>
+        <v>0.1795984384262427</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>21.84056843962225</v>
+        <v>21.84056843962223</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -15046,13 +16288,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -15116,13 +16376,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.08153130775767115</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2490129266374416</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.422765260631271</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2855368763534251</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>37.27629010825425</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -15367,19 +16645,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.01515716977843024</v>
+        <v>0.01514093376071294</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.08948226824600165</v>
+        <v>0.08944318835776445</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1247954050175035</v>
+        <v>0.1247545790420553</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.123114458039786</v>
+        <v>0.123048501659764</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>13.02189193037335</v>
+        <v>13.01675295481917</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -15532,13 +16810,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02748870088239512</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1319707991169879</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2335832605989801</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1657971678961831</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>21.2569252864428</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -15981,13 +17277,13 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03855317493815813</v>
+        <v>0.03855317493815812</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1470235748116233</v>
+        <v>0.1470235748116232</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4251599333137909</v>
+        <v>0.4251599333137908</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0.1963496242373744</v>
@@ -16014,13 +17310,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.89228775050308</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -16084,13 +17398,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06118280541077157</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2014698754860512</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3414874813718003</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2473515825920092</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>32.68423181210689</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -16500,13 +17832,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03810302324026226</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1508066288156122</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4082291598764175</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1951999570703392</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>25.98398751101334</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -16982,13 +18332,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -17052,13 +18420,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1724842860666826</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3460490700451048</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1189552117056649</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4153122753623863</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.96461974067126</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -17303,19 +18689,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.040186295383439</v>
+        <v>1.041185768764201</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7448598607919378</v>
+        <v>0.7471710007328722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2683142069527746</v>
+        <v>0.2689938227117207</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.019895237455024</v>
+        <v>1.020385108066656</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>36.45895169112306</v>
+        <v>36.48423448889817</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -17468,13 +18854,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.2610313471757773</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3369016786693642</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1242756303832841</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5109122695490659</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>14.90432825846339</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -17917,10 +19321,10 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1508542442957284</v>
+        <v>0.1508542442957285</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2763469715246646</v>
+        <v>0.2763469715246647</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0.1240216848068552</v>
@@ -17950,13 +19354,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18020,13 +19442,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2297308723303605</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3913141357776261</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1563646991258796</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4793024852119593</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.57141176270479</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -18267,23 +19707,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.014487767823641</v>
+        <v>1.00272009983876</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.197614997976966</v>
+        <v>0.6547035563756872</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.446783637072662</v>
+        <v>0.249319272623114</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.419326519101099</v>
+        <v>1.001359126307221</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>67.70156532861932</v>
+        <v>36.16383509416911</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -18436,13 +19876,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.7433378877195518</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.5922716788478559</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2274472838124417</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.8621704516622869</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>30.5309877600662</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -18885,19 +20343,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1974892065289806</v>
+        <v>0.1974892065289853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2465255371012749</v>
+        <v>0.2465255371012715</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1671424011600726</v>
+        <v>0.1671424011600723</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4443975770962086</v>
+        <v>0.4443975770962138</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>11.09791046377423</v>
+        <v>11.09791046377408</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -18918,13 +20376,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18988,13 +20464,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2981000639644403</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4273607569762428</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2197904417339203</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5459854063658115</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.14389646515475</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -19404,13 +20898,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.4532128801655349</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.5315301459515523</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2246845201646838</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.6732108734754177</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>23.12557239930341</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -19901,19 +21413,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.04098684247268293</v>
+        <v>0.04098684247268292</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.1573035471642571</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.3077674689591846</v>
+        <v>0.3077674689591845</v>
       </c>
       <c r="O8" s="8" t="n">
         <v>0.2024520745082226</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>25.18720624323463</v>
+        <v>25.18720624323462</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -19922,25 +21434,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>26.8385981240602</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -20010,25 +21558,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02956122128680362</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1208428424580751</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2096288611747208</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1719337700592982</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>19.05816616250095</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.02957115077465156</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1209080136496354</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2097097453164751</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1719626435440313</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>19.06945434884061</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -20315,19 +21899,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.009400519372129225</v>
+        <v>0.0085738345286137</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.07574554669434727</v>
+        <v>0.07210005910313338</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1065798716255892</v>
+        <v>0.1020925074201987</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.09695627556857382</v>
+        <v>0.09259500271944324</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>11.34094976762281</v>
+        <v>10.82168597212445</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -20345,19 +21929,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.008580749558462851</v>
+        <v>0.008597540613161796</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.07173794252366389</v>
+        <v>0.07186984219594564</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.1090135407614031</v>
+        <v>0.1092958252193467</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.09263233538275309</v>
+        <v>0.0927229238816475</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>11.30300297886624</v>
+        <v>11.33938215850213</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -20552,25 +22136,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02240670554241686</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.118237010808484</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2153444065580182</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1496886954396252</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>19.24583031762322</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.02247325104091318</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1189721923157131</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2164989232034805</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1499108102870276</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>19.37967130175909</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -21073,19 +22693,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04194492693105543</v>
+        <v>0.04194492693105525</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1587348792862083</v>
+        <v>0.158734879286208</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05572123314271759</v>
+        <v>0.05572123314271747</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.204804606713461</v>
+        <v>0.2048046067134605</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.718647811153824</v>
+        <v>5.718647811153811</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -21103,19 +22723,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.04010286141242264</v>
+        <v>0.04010286141242708</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1514436158829493</v>
+        <v>0.1514436158829524</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.05292863546036653</v>
+        <v>0.05292863546036698</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2002569884234321</v>
+        <v>0.2002569884234432</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>5.44482264720808</v>
+        <v>5.44482264720816</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -21124,25 +22744,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.834417109646166</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -21212,25 +22868,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1628636131495593</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3377979361388703</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1161271166519597</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4035636420065109</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.60852895859375</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1629166628979162</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3378819569819906</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1161572804640655</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4036293632751664</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>12.61196874190604</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -21754,25 +23446,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.230697619217411</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2855183432398787</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.09542761833634698</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.480309919965652</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>11.01373594577751</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1037189566533299</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2689539436177436</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.09391019593048952</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.3220542759432483</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>10.02378404803493</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -22276,19 +24004,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1923171482478041</v>
+        <v>0.1923171482478039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2592172179683528</v>
+        <v>0.2592172179683519</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.166032772508903</v>
+        <v>0.1660327725089028</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4385397909515214</v>
+        <v>0.4385397909515211</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>11.55125496169988</v>
+        <v>11.55125496169985</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -22306,19 +24034,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.1875033373799094</v>
+        <v>0.1874455139436864</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2536100875761994</v>
+        <v>0.2536172662957824</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.1633602972786647</v>
+        <v>0.1633597320667308</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.4330165555494493</v>
+        <v>0.4329497822423362</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>11.34457500052592</v>
+        <v>11.34506323770759</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -22327,25 +24055,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.2017972742216</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -22415,25 +24179,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2959787871631911</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4230976134393362</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2192790157511738</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5440393250153808</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>17.94760461580853</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2959152541837547</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4230847932628211</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2192397017284543</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5439809318199993</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>17.94733999142397</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -22750,19 +24550,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.1906743927920699</v>
+        <v>0.1906836020398045</v>
       </c>
       <c r="M16" s="8" t="n">
         <v>0.2438115553763667</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.1515748568720197</v>
+        <v>0.1515751789640105</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.4366627907116312</v>
+        <v>0.4366733356180618</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>11.5596114996257</v>
+        <v>11.55974442355585</v>
       </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
@@ -22957,25 +24757,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.3539665304649598</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.41953007530234</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.180733668339308</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5949508639080708</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>18.53016633221354</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1855823837261693</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3023885401146235</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.166411239417908</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.4307927387110527</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>13.33257896217994</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -23479,19 +25315,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09586239151391605</v>
+        <v>0.09586239151391907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1999637187353372</v>
+        <v>0.1999637187353439</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09097330275239324</v>
+        <v>0.09097330275239629</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3096165233218603</v>
+        <v>0.3096165233218651</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.088147276011494</v>
+        <v>8.088147276011759</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -23509,19 +25345,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.1423966242971728</v>
+        <v>0.1423966242971392</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.264292119088495</v>
+        <v>0.2642921190884457</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.1192376268927051</v>
+        <v>0.1192376268926853</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.3773547724584556</v>
+        <v>0.3773547724584111</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>10.52428872528429</v>
+        <v>10.52428872528242</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -23530,25 +25366,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.02166239305382</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -23618,25 +25490,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2172884665480757</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3810737767610329</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1533203234434002</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4661421098206808</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.11311612044268</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2172013511488236</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3810080822918693</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1532743777513721</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4660486574906353</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>15.11054213237496</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -23923,19 +25831,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1313475025775187</v>
+        <v>0.1314105258566183</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2362944705412887</v>
+        <v>0.2364748825907758</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09318719529616126</v>
+        <v>0.09325365951889043</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.3624189600138473</v>
+        <v>0.3625058976852905</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.761291612156917</v>
+        <v>9.768167984233951</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -23953,19 +25861,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.06342764626782095</v>
+        <v>0.06343287894470132</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1723644826817494</v>
+        <v>0.1726458602058404</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.071659035431249</v>
+        <v>0.07176590575188252</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2518484589347748</v>
+        <v>0.2518588472631075</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>6.937399912503134</v>
+        <v>6.94804212986318</v>
       </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
@@ -24160,25 +26068,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.160582120715858</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2762904544740852</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.10623312210171</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.4007269902512907</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>11.13618774031245</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1329967440077382</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2777356004320552</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1042812585787491</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.3646871865143306</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>11.00004047901087</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -24714,19 +26658,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.03547425911202895</v>
+        <v>0.03547425911202909</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1501211719693089</v>
+        <v>0.150121171969309</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.2010169908212779</v>
+        <v>0.2010169908212781</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.1883461152029129</v>
+        <v>0.1883461152029133</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>21.53100153088203</v>
+        <v>21.53100153088205</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -24735,25 +26679,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>21.40085768363254</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -24823,25 +26803,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03938121886633782</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1552905533417446</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2024067189077477</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1984470177814165</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>22.34177862743551</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.0393789356070578</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1552816944951753</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2023994086926715</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1984412648797064</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>22.34032243057923</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -25365,25 +27381,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03870024335957101</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.155308924132958</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.204021274399817</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1967237742611986</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>22.3531539111753</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.03891873670183514</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1675713385860982</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2346888227487481</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1972783229395342</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>24.48542361552281</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -25890,19 +27942,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05442371674734033</v>
+        <v>0.05442371674734038</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1850186816807018</v>
+        <v>0.1850186816807019</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5066058517109141</v>
+        <v>0.5066058517109142</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2332889126112519</v>
+        <v>0.233288912611252</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>31.04015264267214</v>
+        <v>31.04015264267215</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -25920,7 +27972,7 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.05442408470863263</v>
+        <v>0.05442408470863264</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.1850210051428549</v>
@@ -25941,25 +27993,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.89228775050308</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="15" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.89228775050308</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -26029,25 +28117,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05683083740970286</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1893323596850643</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4904682377202668</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2383921924260584</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>31.85651376486168</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.05681376712594938</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1892826425416491</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.490581827901119</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2383563867949617</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>31.84717075012515</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -26334,19 +28458,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05384664135748321</v>
+        <v>0.0537476498669682</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1846055945643301</v>
+        <v>0.1844444634856861</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4774148056622031</v>
+        <v>0.4773615131628344</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2320487908985591</v>
+        <v>0.2318353939047448</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>31.21830413877687</v>
+        <v>31.19094827215535</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -26571,25 +28695,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05336847545196241</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.18477614599861</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5083244867554495</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2310161800652985</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>31.05594485047248</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05747767375307843</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1905682672574251</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4941894224957669</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2397450182028366</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>32.04034218100848</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -27094,16 +29254,16 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04450812421919749</v>
+        <v>0.04450812421919745</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.1688497409345895</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3372045496197129</v>
+        <v>0.3372045496197126</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2109694864647433</v>
+        <v>0.2109694864647432</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>26.98851823742613</v>
@@ -27145,25 +29305,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>26.8385981240602</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -27233,25 +29429,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04733033673323182</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1730580335739963</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3304677903141557</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2175553647539674</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>27.71491264553452</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04730423024527435</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1730006532368493</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3303464207948387</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2174953568361273</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>27.70598286907697</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -27775,25 +30007,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.04782404615145833</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1742824912945103</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3331198320609985</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2186870964448025</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>27.90827569288556</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04782404615145833</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1742824912945103</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3331198320609985</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2186870964448025</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>27.90827569288556</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">

--- a/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
@@ -1162,19 +1162,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02147516252898832</v>
+        <v>0.02136233068781594</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1198674579547536</v>
+        <v>0.1193411398649758</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1649738507896212</v>
+        <v>0.1641523505938519</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1465440634382311</v>
+        <v>0.1461585806164521</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.68328209439802</v>
+        <v>17.60198039981335</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -1192,19 +1192,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02155433154657455</v>
+        <v>0.02144294566305543</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1227888969189568</v>
+        <v>0.122304752482161</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1682103073202604</v>
+        <v>0.1675768029624269</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1468139351239335</v>
+        <v>0.1464341000691281</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>17.68117241275489</v>
+        <v>17.61935886674931</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -1224,19 +1224,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07502443995748505</v>
+        <v>0.07673774541115222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2377310905019999</v>
+        <v>0.2400314005604414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3371058018206917</v>
+        <v>0.3398547070038498</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2739058961714498</v>
+        <v>0.2770157854909215</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>35.15311784140675</v>
+        <v>35.53108026900576</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -1254,19 +1254,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.07535825087230495</v>
+        <v>0.07612406368217182</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2347167375093859</v>
+        <v>0.2359925590867532</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3223998729679617</v>
+        <v>0.3232615829511156</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2745145731510532</v>
+        <v>0.2759058964251613</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>34.9132129767539</v>
+        <v>35.20093009246884</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2596628899678542</v>
+        <v>0.2598007885239129</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4049796753695942</v>
+        <v>0.4051717985002085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1630620229012017</v>
+        <v>0.1631273237672427</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5095712805563656</v>
+        <v>0.5097065710032713</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.11805576560783</v>
+        <v>17.12545488422849</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -2507,19 +2507,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.827338516127292</v>
+        <v>0.8144644260833095</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.7980331447949331</v>
+        <v>0.7943203264847771</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3041487025801022</v>
+        <v>0.3032003608405267</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.9095815060385144</v>
+        <v>0.9024768285575588</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>36.85439120620891</v>
+        <v>36.65411785420128</v>
       </c>
     </row>
     <row r="14">
@@ -2535,23 +2535,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7249226152124523</v>
+        <v>0.7173331299632768</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.71519385546332</v>
+        <v>0.7008323040274766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3574076175017221</v>
+        <v>0.3556544836354114</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8514238751717339</v>
+        <v>0.8469552113088843</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.64054851107942</v>
+        <v>28.85332774172141</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2569,19 +2569,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.7980489768550829</v>
+        <v>0.804419843208262</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5771903571881087</v>
+        <v>0.5918300841311259</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3482412958706558</v>
+        <v>0.3504306758285912</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8933358701267307</v>
+        <v>0.896894555233926</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>22.68901167944783</v>
+        <v>23.43439035408592</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3789,19 +3789,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2533378107848325</v>
+        <v>0.2533378107848349</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.464098831028888</v>
+        <v>0.4640988310288907</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1695465982029594</v>
+        <v>0.1695465982029602</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5033267435621045</v>
+        <v>0.5033267435621068</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>18.67577034564036</v>
+        <v>18.67577034564047</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.3355991133812923</v>
+        <v>0.3385096542057347</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5439873180436644</v>
+        <v>0.5458252729707918</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2034886844121135</v>
+        <v>0.2040112626856181</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.5793091690809773</v>
+        <v>0.5818158249873706</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>22.57497319025677</v>
+        <v>22.66196396259758</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3851,19 +3851,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7072464331806311</v>
+        <v>0.6959771779040431</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7114790210888073</v>
+        <v>0.7045780225858008</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2789750530340546</v>
+        <v>0.2768522147364234</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8409794487266803</v>
+        <v>0.8342524665255975</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.53794448951276</v>
+        <v>29.18473585725023</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -3881,19 +3881,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6991913111697374</v>
+        <v>0.6935752292307278</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.7509717154062591</v>
+        <v>0.7515507001105528</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.30134136213872</v>
+        <v>0.3020844180475543</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8361766028595499</v>
+        <v>0.832811640907311</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>30.72941130608709</v>
+        <v>30.74418860981929</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -5101,19 +5101,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6108859111137961</v>
+        <v>0.618442574850011</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6767755808091669</v>
+        <v>0.6837511679845738</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.248030042018259</v>
+        <v>0.2506840824782419</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7815919082960084</v>
+        <v>0.7864111995959944</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>30.09432505555479</v>
+        <v>30.4188516526857</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5131,19 +5131,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5139097509189239</v>
+        <v>0.5129892163414107</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.6458826024880606</v>
+        <v>0.6456241046793411</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2334094771895467</v>
+        <v>0.2335037825066035</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7168749897429285</v>
+        <v>0.7162326551766617</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27.39170159073047</v>
+        <v>27.41402265841974</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5163,19 +5163,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.659997035443864e-06</v>
+        <v>2.850524495902719e-06</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00150183200803716</v>
+        <v>0.001540108297097746</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0005376130613534933</v>
+        <v>0.0005509832550230452</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00163094973418676</v>
+        <v>0.001688349636746701</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05374447323452976</v>
+        <v>0.05508028027031018</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -5193,19 +5193,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.420940007055131</v>
+        <v>0.07691973730842068</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5809762839780959</v>
+        <v>0.2412773468574791</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2037229429224209</v>
+        <v>0.08413787274535352</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.6487988956950613</v>
+        <v>0.2773440774713257</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>23.23782228915638</v>
+        <v>8.885830721255308</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0639483445549386</v>
+        <v>0.06394834455493861</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1818629096954293</v>
@@ -6441,19 +6441,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06582541698259572</v>
+        <v>0.06582992546108797</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1803504460545791</v>
+        <v>0.1803625252093526</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.659883799607112</v>
+        <v>1.659936368265575</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2565646448414039</v>
+        <v>0.2565734309336958</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>34.28516299748406</v>
+        <v>34.28703081451946</v>
       </c>
     </row>
     <row r="14">
@@ -6473,19 +6473,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08661827113299096</v>
+        <v>0.08689499723645637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2314443740638806</v>
+        <v>0.2318475375676124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.652725893552004</v>
+        <v>1.655053171106011</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2943098216726567</v>
+        <v>0.2947795739810619</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>41.95710272731181</v>
+        <v>41.99840511484546</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6503,19 +6503,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06903866638563413</v>
+        <v>0.06886889125070737</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1912663279926538</v>
+        <v>0.1908447805928931</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.696864697340457</v>
+        <v>1.695776702303674</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2627521006302978</v>
+        <v>0.2624288308298221</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>36.1329232515127</v>
+        <v>36.06374369084632</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6565,7 +6565,7 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0610669912717938</v>
+        <v>0.06106699127179379</v>
       </c>
       <c r="M15" s="8" t="n">
         <v>0.1814967007860476</v>
@@ -7721,19 +7721,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05875893694658847</v>
+        <v>0.05881256294997433</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1439483066855573</v>
+        <v>0.1439611583163658</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.744184994429826</v>
+        <v>1.744354163816386</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2424024276829514</v>
+        <v>0.2425130160423855</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>28.89721378801746</v>
+        <v>28.89626175563505</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7751,19 +7751,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05150559097037748</v>
+        <v>0.05117308728495464</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1328360156067146</v>
+        <v>0.1324260034065581</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.696739226084389</v>
+        <v>1.693087827078644</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2269484324034372</v>
+        <v>0.2262146929024608</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27.51801391306804</v>
+        <v>27.4682562041357</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7783,19 +7783,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07141239674948648</v>
+        <v>0.07159990520024942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2078962263218503</v>
+        <v>0.2083546106495673</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.779868866485101</v>
+        <v>1.78093658207236</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2672309801454286</v>
+        <v>0.2675815860634835</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>38.79768545019154</v>
+        <v>38.85979852991975</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7813,19 +7813,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.0517193160318467</v>
+        <v>0.05165033302202648</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1475482695762911</v>
+        <v>0.1473694195736637</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.619355328431665</v>
+        <v>1.618663651659725</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2274188119568095</v>
+        <v>0.2272670962150625</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>29.75672458724433</v>
+        <v>29.72710322629053</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9043,7 +9043,7 @@
         <v>0.2606412492095134</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>29.66690080427335</v>
+        <v>29.66690080427336</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9061,19 +9061,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06086952849830088</v>
+        <v>0.06086455594932356</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1568575242792306</v>
+        <v>0.1568275624447533</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.843602554716531</v>
+        <v>1.843597725187438</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2467175074823448</v>
+        <v>0.2467074298624254</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>29.59838353547681</v>
+        <v>29.59324597673392</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9093,19 +9093,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1376362335506021</v>
+        <v>0.1384103387205912</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2923245148911115</v>
+        <v>0.2934097425012326</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.295308908739947</v>
+        <v>2.299089223555205</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3709935761581352</v>
+        <v>0.372035399821833</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>54.44531025587705</v>
+        <v>54.65337994925171</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9123,19 +9123,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09343309687699247</v>
+        <v>0.09371186507237164</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2191591934498373</v>
+        <v>0.2197540655839628</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>2.144911087464965</v>
+        <v>2.146619744642191</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3056682791474975</v>
+        <v>0.3061239374377176</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>37.83601128963102</v>
+        <v>37.91952092699265</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9155,19 +9155,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07751963863379478</v>
+        <v>0.07722231979930638</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1774720338094835</v>
+        <v>0.1757815353470808</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.928008204018915</v>
+        <v>1.929466428337094</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2784234879348271</v>
+        <v>0.2778890422440338</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>32.34688094694344</v>
+        <v>32.12394435591661</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -9185,13 +9185,13 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.06702215896856227</v>
+        <v>0.06702215896856226</v>
       </c>
       <c r="M15" s="8" t="n">
         <v>0.1901115437033807</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.855386564203267</v>
+        <v>1.855386564203266</v>
       </c>
       <c r="O15" s="8" t="n">
         <v>0.2588863823544264</v>
@@ -10337,23 +10337,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6921214701859825</v>
+        <v>0.6898938121657756</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3500154299142766</v>
+        <v>0.3461544306170763</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6329342017229926</v>
+        <v>0.6304715957415233</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8319383812434563</v>
+        <v>0.8305984662674111</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.58252245065339</v>
+        <v>17.42988546664375</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10371,19 +10371,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6922554618278408</v>
+        <v>0.6923436373730202</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3454808743209007</v>
+        <v>0.3454709633922572</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6305210767944724</v>
+        <v>0.6305652658481421</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.8320189071336305</v>
+        <v>0.8320718943534988</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>17.39294546484261</v>
+        <v>17.39223237807794</v>
       </c>
     </row>
     <row r="14">
@@ -10403,19 +10403,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6906441201791294</v>
+        <v>0.6908205601464419</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3609369121176673</v>
+        <v>0.360779728565443</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6336571896751175</v>
+        <v>0.633708180132677</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8310500106366219</v>
+        <v>0.8311561587009038</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.99960982662148</v>
+        <v>17.99337368853305</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10433,19 +10433,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.698255079162602</v>
+        <v>0.6984204527607151</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3970122151335735</v>
+        <v>0.3968340045732763</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6424135825832566</v>
+        <v>0.6423782018342876</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8356165862179867</v>
+        <v>0.8357155333968103</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>19.45388007140282</v>
+        <v>19.44642622752787</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10465,10 +10465,10 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6859390876560771</v>
+        <v>0.6859390876560773</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3949175410194076</v>
+        <v>0.3949175410194077</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>0.6227762815721178</v>
@@ -10495,16 +10495,16 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.683554553023049</v>
+        <v>0.6835545530230492</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3834877520575912</v>
+        <v>0.3834877520575913</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6220029317389588</v>
+        <v>0.6220029317389587</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.8267735802643</v>
+        <v>0.8267735802643001</v>
       </c>
       <c r="P15" s="8" t="n">
         <v>18.94783663152832</v>
@@ -11654,10 +11654,10 @@
         <v>0.6699012006541463</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3571117172356469</v>
+        <v>0.3571117172356471</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6511533016197684</v>
+        <v>0.6511533016197683</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.8184749236562756</v>
@@ -11684,10 +11684,10 @@
         <v>0.6268471698397332</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3481288662425613</v>
+        <v>0.3481288662425612</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.630035238653741</v>
+        <v>0.6300352386537409</v>
       </c>
       <c r="O13" s="8" t="n">
         <v>0.7917368059145243</v>
@@ -11713,19 +11713,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6993781969682086</v>
+        <v>0.6946883950638408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5242022547897677</v>
+        <v>0.5195975191609208</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6072726338880475</v>
+        <v>0.6065105144757412</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8362883455891327</v>
+        <v>0.8334796908526571</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>24.7458023549504</v>
+        <v>24.5841643655604</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11743,19 +11743,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6007602351578282</v>
+        <v>0.6023639097948538</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3501890659811482</v>
+        <v>0.3501833126763251</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6142921115618863</v>
+        <v>0.6152011202389999</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7750872435783137</v>
+        <v>0.776121066454747</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>17.86106487348958</v>
+        <v>17.86031977838795</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11805,19 +11805,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.6199953714388909</v>
+        <v>0.6199953714388912</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.4221453493304176</v>
+        <v>0.4221453493304177</v>
       </c>
       <c r="N15" s="8" t="n">
         <v>0.6272996033269728</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7873978482564522</v>
+        <v>0.7873978482564523</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>20.45455393477031</v>
+        <v>20.45455393477032</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -12961,19 +12961,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5882066707478121</v>
+        <v>0.5836318068228796</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3351738264201359</v>
+        <v>0.3401435238574632</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.324719676621314</v>
+        <v>0.3256650007647112</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7669463284662181</v>
+        <v>0.7639579876032973</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>16.89739963759272</v>
+        <v>17.15385428007685</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -12991,19 +12991,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6247785667398443</v>
+        <v>0.6208348363518466</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.352338123651531</v>
+        <v>0.3569252812841965</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3372554750779753</v>
+        <v>0.338098555565706</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7904293559451372</v>
+        <v>0.7879307306812233</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>17.46563700354348</v>
+        <v>17.71837242434046</v>
       </c>
     </row>
     <row r="14">
@@ -13023,19 +13023,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7291358213637777</v>
+        <v>0.7440667413913425</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4018701770888107</v>
+        <v>0.4099203660423574</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3755601371093215</v>
+        <v>0.3807284125810863</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8538945024789525</v>
+        <v>0.8625930334702121</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>19.09456463838751</v>
+        <v>19.34451066618564</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13053,19 +13053,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6160150425628462</v>
+        <v>0.6122807672533175</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3732179301862148</v>
+        <v>0.3728586144023123</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3397568244415539</v>
+        <v>0.3389800588246941</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7848662577553237</v>
+        <v>0.782483716925354</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>18.20075376541345</v>
+        <v>18.20615782377397</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -13115,10 +13115,10 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.6141223645743086</v>
+        <v>0.6141223645743085</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3463651393974319</v>
+        <v>0.3463651393974317</v>
       </c>
       <c r="N15" s="8" t="n">
         <v>0.3296245127574355</v>
@@ -14181,19 +14181,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03553893475866756</v>
+        <v>0.03576296819775017</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.147923152133937</v>
+        <v>0.148340265743123</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.198625684795465</v>
+        <v>0.1991095905841595</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1885177306214658</v>
+        <v>0.1891109943862339</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>21.62385214750138</v>
+        <v>21.68363192070325</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -14225,19 +14225,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03952318295317824</v>
+        <v>0.03931738888539622</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.149355676498314</v>
+        <v>0.148855192451159</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2026088204052559</v>
+        <v>0.2018960738468965</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1988043836367253</v>
+        <v>0.1982861288275007</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>21.91054638821628</v>
+        <v>21.8232654615806</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15293,19 +15293,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02495501682436902</v>
+        <v>0.02476230387279093</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1193349966474827</v>
+        <v>0.1188930162293124</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2446118607006909</v>
+        <v>0.24436884715092</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1579715696711564</v>
+        <v>0.1573604266414874</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>21.02423356902619</v>
+        <v>20.96698886307943</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -15323,19 +15323,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02449135252663294</v>
+        <v>0.02422503732209157</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1229568937550961</v>
+        <v>0.1222468653756636</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2512954519126486</v>
+        <v>0.2520952952411016</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1564971326466812</v>
+        <v>0.1556439440585196</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>21.75748002375132</v>
+        <v>21.68297091936948</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -15355,19 +15355,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04260969408921291</v>
+        <v>0.04205612109479465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1585670109577806</v>
+        <v>0.1575080859007195</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4033731782783033</v>
+        <v>0.3985470320504469</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2064211570774975</v>
+        <v>0.2050758910618083</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>27.16095939782158</v>
+        <v>26.99846481022537</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15385,19 +15385,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09108870264768938</v>
+        <v>0.09114765977773855</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2536946640729225</v>
+        <v>0.2536898169270443</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6624668797252486</v>
+        <v>0.6616403024069547</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3018090499764535</v>
+        <v>0.3019067070764387</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>41.78385984086669</v>
+        <v>41.81227216362077</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -16513,19 +16513,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07064415729493491</v>
+        <v>0.07064951918929713</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2293603232290146</v>
+        <v>0.2294303871356369</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3838564073481803</v>
+        <v>0.3843940225258373</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2657896862087295</v>
+        <v>0.2657997727412443</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>36.99781682083525</v>
+        <v>37.01319624296702</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -16557,19 +16557,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05500769323540611</v>
+        <v>0.05667672182434496</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1854211726666431</v>
+        <v>0.1885379518178303</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3098992313733371</v>
+        <v>0.3232780416885627</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2345371894506415</v>
+        <v>0.2380687334034962</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>30.54210329970106</v>
+        <v>31.04957738462408</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -17535,19 +17535,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05440701644416694</v>
+        <v>0.05430842417124625</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1945981828662295</v>
+        <v>0.19438852963662</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4281556369823108</v>
+        <v>0.4279406291246183</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2332531166869308</v>
+        <v>0.2330416790431408</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>37.90071039289858</v>
+        <v>37.8730391202477</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -17579,19 +17579,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07978676141702425</v>
+        <v>0.07947209786411397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2116744498273832</v>
+        <v>0.2213745090926879</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5794690156748851</v>
+        <v>0.5834764145817898</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2824655048267385</v>
+        <v>0.2819079599162003</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>35.30876628710656</v>
+        <v>36.76448969254778</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -18557,19 +18557,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.568495226938146</v>
+        <v>1.582158008917553</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9076223548612239</v>
+        <v>0.9109929433860176</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.332277357345371</v>
+        <v>0.3334030812308748</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.252395794842088</v>
+        <v>1.257838625944343</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>49.11770429621134</v>
+        <v>49.37494894351704</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -18601,19 +18601,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2375215541390165</v>
+        <v>0.2338283177689531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3479516511547833</v>
+        <v>0.3459210537982796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1312602405573132</v>
+        <v>0.1300378628352984</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4873618308187629</v>
+        <v>0.4835579776706751</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.69428986529561</v>
+        <v>11.64396338204816</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -19579,19 +19579,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.201924432012106</v>
+        <v>1.223942805737622</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8636995573535919</v>
+        <v>0.8796676914239528</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3288661259534524</v>
+        <v>0.3343481113544032</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.096323142149296</v>
+        <v>1.106319486286679</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>45.29640616174164</v>
+        <v>46.07067148551138</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -19623,19 +19623,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08683910825054511</v>
+        <v>0.08996956896463254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2009404904556884</v>
+        <v>0.2073537329749369</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09248447861759052</v>
+        <v>0.09576985138334576</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2946847608047371</v>
+        <v>0.2999492773197371</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>8.216748265643048</v>
+        <v>8.461313034444668</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -20601,19 +20601,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8354524616128727</v>
+        <v>0.8348157864625332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7429479498829107</v>
+        <v>0.7427961540586759</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3040001393263642</v>
+        <v>0.3040147860509126</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9140308865748863</v>
+        <v>0.9136825414018445</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>36.64009934993369</v>
+        <v>36.64593272325932</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -20645,19 +20645,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1779362250055299</v>
+        <v>0.1895882225525665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2280081950554788</v>
+        <v>0.2535821852729586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1590148198077806</v>
+        <v>0.1685446879235142</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4218248748065124</v>
+        <v>0.4354172970296041</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.42032144977658</v>
+        <v>11.36917605075089</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21713,19 +21713,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01626412068555596</v>
+        <v>0.01637953101774435</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.09428049652114713</v>
+        <v>0.09445297231546707</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1462873593968914</v>
+        <v>0.1463390459819399</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1275308616984766</v>
+        <v>0.1279825418474893</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>14.46446569685087</v>
+        <v>14.48650010529632</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -21743,19 +21743,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.01732408339053343</v>
+        <v>0.01728923108672818</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.09561041021244271</v>
+        <v>0.09543757154933213</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1481749001183648</v>
+        <v>0.1470161644877567</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1316209838533865</v>
+        <v>0.131488520741273</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>14.65541838103665</v>
+        <v>14.59408478996171</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -21771,23 +21771,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04636887577029054</v>
+        <v>0.06712416179060991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1561424743814251</v>
+        <v>0.213919079064746</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2982393673957</v>
+        <v>0.4213523836489506</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2153343348616066</v>
+        <v>0.2590833105211718</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>24.94637399641815</v>
+        <v>34.37575552169167</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21805,19 +21805,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06348712228118186</v>
+        <v>0.06275388742266229</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2125157144966651</v>
+        <v>0.2119361119065306</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4625505109508123</v>
+        <v>0.4587534476262294</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2519665102373366</v>
+        <v>0.2505072602194641</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>34.92749444347139</v>
+        <v>34.88559675151023</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -23023,19 +23023,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2054368015013832</v>
+        <v>0.2051948925022637</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3395351354029613</v>
+        <v>0.3393997643324488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1200942177367685</v>
+        <v>0.1200501518147903</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4532513667948318</v>
+        <v>0.4529844285428183</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>13.41021806206863</v>
+        <v>13.40418137056898</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -23053,19 +23053,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1065461393940732</v>
+        <v>0.10642476828629</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2522991814235244</v>
+        <v>0.2521117422579433</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.08813802663421985</v>
+        <v>0.08807095172537729</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.3264140612689245</v>
+        <v>0.326228092423522</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>9.481211267009373</v>
+        <v>9.47371740821213</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -23085,19 +23085,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02745153353907671</v>
+        <v>0.02718049579204893</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1225807324378112</v>
+        <v>0.1221701629815509</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04508230636037268</v>
+        <v>0.04520943859885172</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1656850431966528</v>
+        <v>0.1648650836048947</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.476293752439913</v>
+        <v>4.469377205705366</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -23115,19 +23115,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.04268103637358021</v>
+        <v>0.04320753822333075</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1590394313479517</v>
+        <v>0.160952056131845</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.05514993616679341</v>
+        <v>0.05581004069472453</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2065938923917651</v>
+        <v>0.2078642302642058</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>5.710347477858456</v>
+        <v>5.780322953879969</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24334,19 +24334,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2055444377183423</v>
+        <v>0.2058323119809267</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3211502173966321</v>
+        <v>0.3217184866059407</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1513083570554986</v>
+        <v>0.1514280999912633</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4533700891306596</v>
+        <v>0.4536874606829316</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>14.0971628643159</v>
+        <v>14.12073489514128</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -24364,19 +24364,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1471800877445313</v>
+        <v>0.1491552329502895</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2618851421408249</v>
+        <v>0.2638676700550561</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1434105381526175</v>
+        <v>0.1441201936171294</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.3836405710356131</v>
+        <v>0.3862062052198145</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>11.67545271388901</v>
+        <v>11.76286844228862</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -24396,19 +24396,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2285147304615733</v>
+        <v>0.2307792662452391</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2582573156645616</v>
+        <v>0.262057344068946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1785870495765576</v>
+        <v>0.1799083447275227</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4780321437535067</v>
+        <v>0.4803949065563031</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.47030596905669</v>
+        <v>11.6014603126564</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -24426,19 +24426,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.192091609318073</v>
+        <v>0.1952542569043632</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2475154880490118</v>
+        <v>0.2376615034623334</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1650410020640811</v>
+        <v>0.1631231355094213</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4382825678920769</v>
+        <v>0.4418758387877337</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>11.14083460992313</v>
+        <v>10.77844381320603</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25645,19 +25645,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1436495652104431</v>
+        <v>0.1391256105052053</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2582882737002909</v>
+        <v>0.2567422255425363</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09974897874349385</v>
+        <v>0.0994772413005624</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3790112995814809</v>
+        <v>0.3729954564136208</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>10.42115667605949</v>
+        <v>10.36577278099308</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -25675,19 +25675,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.115925257417144</v>
+        <v>0.1160578354374091</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2582320477578952</v>
+        <v>0.2583999094713954</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.09677087651310126</v>
+        <v>0.0968773853865882</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.3404779837480598</v>
+        <v>0.3406726220837376</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>10.15790145027591</v>
+        <v>10.16648429475496</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -25703,53 +25703,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.4605142867685151</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.3935814176035318</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.167454779437379</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.6786120296373437</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>17.80241248244124</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.1000410792517736</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.1588779984885042</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.08299664317772554</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.3162927113478489</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>6.691527861965713</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.1110619367800196</v>
+        <v>0.1165877102241461</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2096117715077645</v>
+        <v>0.2344306927825677</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.09847409281170999</v>
+        <v>0.1057183384263311</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.333259563673752</v>
+        <v>0.3414494255730212</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>8.496202583880017</v>
+        <v>9.404402327913614</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -26954,23 +26954,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0167963570940254</v>
+        <v>0.0165834799332386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1070119000438008</v>
+        <v>0.1051170485741168</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1407593624401377</v>
+        <v>0.1376127284543079</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1296007603913858</v>
+        <v>0.1287768610164054</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>14.96945924807099</v>
+        <v>14.71477510630381</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -26988,19 +26988,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.01024837906955385</v>
+        <v>0.01024331878350706</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.07639824962019055</v>
+        <v>0.07597273201698451</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1009940389349075</v>
+        <v>0.09990327291533108</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1012342781351941</v>
+        <v>0.1012092821015299</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>10.35955615595404</v>
+        <v>10.26260919981826</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -27020,19 +27020,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001131168592912222</v>
+        <v>0.001176078710542376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02949458832891889</v>
+        <v>0.03012143130467932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04148651128244669</v>
+        <v>0.04275924761336487</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03363284990767541</v>
+        <v>0.03429400400277541</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.170639198895378</v>
+        <v>4.282232253757988</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27050,19 +27050,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.006756307445370179</v>
+        <v>0.00689623455403598</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.06663204242409754</v>
+        <v>0.06891421759982556</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.09277706417042972</v>
+        <v>0.09811643307127739</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.08219676055277469</v>
+        <v>0.0830435702148937</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>9.342146779488358</v>
+        <v>9.77206539706372</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28272,19 +28272,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04016080243767152</v>
+        <v>0.04008355774451004</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1557396186726896</v>
+        <v>0.1556610116688388</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3915690107965282</v>
+        <v>0.3917858742784692</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2004016028819917</v>
+        <v>0.2002087853829348</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.93781851405554</v>
+        <v>26.92945325092191</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28302,19 +28302,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.04295769822754651</v>
+        <v>0.04297129940557374</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1538035917341412</v>
+        <v>0.1539496571332691</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.4099731077906327</v>
+        <v>0.4101888448880489</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2072623898046785</v>
+        <v>0.2072951987036211</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>26.40942680057451</v>
+        <v>26.42959024510828</v>
       </c>
     </row>
     <row r="14">
@@ -28330,53 +28330,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.07256356886289878</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2206135527215773</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.5763505842563642</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2693762589073113</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>36.70380866932677</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.0978588407299984</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.2653689116209608</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.6520531771375271</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.3128239772300045</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>44.37312622016761</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.149815979783995</v>
+        <v>0.146833468350747</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3194220329006894</v>
+        <v>0.3163005656450899</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.8732171691233883</v>
+        <v>0.8606034508691329</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3870606926361743</v>
+        <v>0.3831885545664784</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>51.47152946157541</v>
+        <v>51.11580570742144</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29584,19 +29584,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03853056572238314</v>
+        <v>0.03844120063333231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1502966191687709</v>
+        <v>0.1498145135021961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2425711046924398</v>
+        <v>0.2416705694949916</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1962920419232098</v>
+        <v>0.1960642767903738</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.85763821199179</v>
+        <v>23.75631164959138</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29614,19 +29614,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02872075437694769</v>
+        <v>0.02862922865354429</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1202368498376661</v>
+        <v>0.1198849228268445</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2279592147920032</v>
+        <v>0.2274463764647832</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1694719869976973</v>
+        <v>0.1692017395109882</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>19.34196386458278</v>
+        <v>19.29177831063599</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29646,19 +29646,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1045686530360048</v>
+        <v>0.1026141282016385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2481008751257079</v>
+        <v>0.2450399847002373</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5645569703056685</v>
+        <v>0.5596073767555545</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3233707671327214</v>
+        <v>0.320334400590443</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>36.45034929866733</v>
+        <v>35.94040939575687</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -29676,19 +29676,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1117711301914926</v>
+        <v>0.1220658954355847</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2779691041684946</v>
+        <v>0.2885369680295813</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5651522577637781</v>
+        <v>0.5809591041212612</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3343218960694806</v>
+        <v>0.3493793002391308</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>43.9597767319293</v>
+        <v>46.3593287036738</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.261524498462677</v>
+        <v>1.813842177391052</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3290709555149078</v>
+        <v>1.19799816608429</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2082113921642303</v>
+        <v>0.6732760667800903</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5113946601820134</v>
+        <v>1.346789581705714</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.040407538414</v>
+        <v>40.06839692592621</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.5623334646224976</v>
+        <v>1.425558924674988</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5877885818481445</v>
+        <v>1.033686876296997</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3227790594100952</v>
+        <v>0.5999994277954102</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7498889681962907</v>
+        <v>1.193967723464495</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>22.19953984022141</v>
+        <v>35.93122959136963</v>
       </c>
     </row>
   </sheetData>
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2374654859304428</v>
+        <v>1.346521973609924</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3498514294624329</v>
+        <v>1.04928982257843</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1609757244586945</v>
+        <v>0.5274211764335632</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4873043052656552</v>
+        <v>1.160397334368674</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.42570185661316</v>
+        <v>35.31738817691803</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1613105982542038</v>
+        <v>1.301259160041809</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2501397430896759</v>
+        <v>0.9803926944732666</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1220003515481949</v>
+        <v>0.5230556726455688</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4016349066679885</v>
+        <v>1.140727469662149</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>10.0755900144577</v>
+        <v>33.22745561599731</v>
       </c>
     </row>
   </sheetData>
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08206069469451904</v>
+        <v>0.5622509717941284</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.224407285451889</v>
+        <v>0.65226811170578</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08620063215494156</v>
+        <v>0.288763701915741</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2864623791958013</v>
+        <v>0.7498339628171883</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.081082999706268</v>
+        <v>22.84562736749649</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06113775074481964</v>
+        <v>0.3799636363983154</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2031368017196655</v>
+        <v>0.4833956658840179</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.07447846978902817</v>
+        <v>0.224493145942688</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2472604916779461</v>
+        <v>0.6164119048155344</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>7.174511253833771</v>
+        <v>17.7697479724884</v>
       </c>
     </row>
   </sheetData>
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1085596606135368</v>
+        <v>0.02724390663206577</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2795644402503967</v>
+        <v>0.13738052546978</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.204314231872559</v>
+        <v>0.3067423701286316</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3294839307364425</v>
+        <v>0.1650572828810222</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>55.31743168830872</v>
+        <v>22.97998666763306</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1379351764917374</v>
+        <v>0.04836029186844826</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2945511639118195</v>
+        <v>0.1609974801540375</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.461399555206299</v>
+        <v>0.3230977654457092</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3713962526624863</v>
+        <v>0.2199097357291128</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>57.48712420463562</v>
+        <v>26.74477398395538</v>
       </c>
     </row>
   </sheetData>
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>793003</v>
+        <v>0.2273407727479935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>469.850341796875</v>
+        <v>0.3293191194534302</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1230.771484375</v>
+        <v>1.218371748924255</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>890.507158870719</v>
+        <v>0.4768026559783339</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>197.0652103424072</v>
+        <v>45.06390392780304</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2598912119865417</v>
+        <v>0.03477193415164948</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4498991370201111</v>
+        <v>0.129129096865654</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>2.290374040603638</v>
+        <v>0.4515850841999054</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5097952647745384</v>
+        <v>0.1864723415191901</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>85.13069748878479</v>
+        <v>23.34436327219009</v>
       </c>
     </row>
   </sheetData>
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.015212297439575</v>
+        <v>0.03512078523635864</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8564004898071289</v>
+        <v>0.1469042748212814</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.227837562561035</v>
+        <v>0.5116500854492188</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.007577439921903</v>
+        <v>0.1874054034342624</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>171.0776329040527</v>
+        <v>27.8651624917984</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>2.39837121963501</v>
+        <v>0.04465950652956963</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.195747017860413</v>
+        <v>0.1713461577892303</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>3.812820196151733</v>
+        <v>0.461700975894928</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.548667562659918</v>
+        <v>0.2113279596493792</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>125.9488463401794</v>
+        <v>32.45477676391602</v>
       </c>
     </row>
   </sheetData>
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.514779090881348</v>
+        <v>3201.905029296875</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8769398331642151</v>
+        <v>43.16402435302734</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.923761248588562</v>
+        <v>17.78234481811523</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.230763621042378</v>
+        <v>56.58537822880461</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>35.21175980567932</v>
+        <v>185.0623846054077</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.013164520263672</v>
+        <v>0.2950990200042725</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7331840991973877</v>
+        <v>0.3790708780288696</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7497202754020691</v>
+        <v>0.1777375042438507</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.006560738487088</v>
+        <v>0.543230172214571</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>32.72711634635925</v>
+        <v>14.27372694015503</v>
       </c>
     </row>
   </sheetData>
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4031.81982421875</v>
+        <v>0.3038831353187561</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>49.23323440551758</v>
+        <v>0.3008875846862793</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24.3879222869873</v>
+        <v>0.2162643522024155</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>63.49661269877906</v>
+        <v>0.5512559617081307</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>175.1310706138611</v>
+        <v>13.13444972038269</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.794214844703674</v>
+        <v>1059.855712890625</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.954781174659729</v>
+        <v>23.72984886169434</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.9678616523742676</v>
+        <v>11.07570648193359</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.339483051293922</v>
+        <v>32.55542524512044</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>38.59826028347015</v>
+        <v>155.0041913986206</v>
       </c>
     </row>
   </sheetData>
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.207615375518799</v>
+        <v>0.28587806224823</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.735126256942749</v>
+        <v>0.3275477290153503</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5264574885368347</v>
+        <v>0.2442348301410675</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.098915545216646</v>
+        <v>0.5346756607965524</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.03905117511749</v>
+        <v>15.28849303722382</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>335.9050903320312</v>
+        <v>0.3493086099624634</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>12.80340099334717</v>
+        <v>0.3536272644996643</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>6.800779819488525</v>
+        <v>0.2706869542598724</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>18.32771372353986</v>
+        <v>0.5910233582206911</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>163.5970950126648</v>
+        <v>16.06845110654831</v>
       </c>
     </row>
   </sheetData>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05938562750816345</v>
+        <v>0.04976315796375275</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2146963179111481</v>
+        <v>0.1816519498825073</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2983080446720123</v>
+        <v>0.3628309369087219</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2436916648311211</v>
+        <v>0.2230765742155656</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.34260582923889</v>
+        <v>30.05844056606293</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03878010436892509</v>
+        <v>0.05016268417239189</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1629487723112106</v>
+        <v>0.1717063784599304</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3756773471832275</v>
+        <v>0.5583181977272034</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1969266471783976</v>
+        <v>0.2239702751982769</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.71431398391724</v>
+        <v>29.36278283596039</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0783500000834465</v>
+        <v>0.06570649892091751</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2129963636398315</v>
+        <v>0.1977661699056625</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7031290531158447</v>
+        <v>0.7681564092636108</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2799107001946273</v>
+        <v>0.2563327893986985</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.68333184719086</v>
+        <v>33.76418650150299</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1979631632566452</v>
+        <v>0.1882681995630264</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3724647760391235</v>
+        <v>0.3443377315998077</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1430797576904297</v>
+        <v>0.1497099101543427</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4449305150881935</v>
+        <v>0.4338988356322547</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.92668133974075</v>
+        <v>13.90862166881561</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3629348874092102</v>
+        <v>0.7077682018280029</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4608899354934692</v>
+        <v>0.6508686542510986</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2109336256980896</v>
+        <v>0.3752604126930237</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6024407750220848</v>
+        <v>0.8412896063948507</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.9095441699028</v>
+        <v>24.16518479585648</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2877391576766968</v>
+        <v>0.6333100199699402</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3315104246139526</v>
+        <v>0.5401325821876526</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2113785445690155</v>
+        <v>0.3818592429161072</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5364132340618535</v>
+        <v>0.7958077782793658</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.14746195077896</v>
+        <v>21.90844714641571</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03643960133194923</v>
+        <v>0.1068681180477142</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1660768240690231</v>
+        <v>0.2542704939842224</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2739340364933014</v>
+        <v>0.6445325016975403</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1908915957603929</v>
+        <v>0.3269068950752098</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.29322248697281</v>
+        <v>35.38498282432556</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.03194341063499451</v>
+        <v>0.04947612807154655</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1470661014318466</v>
+        <v>0.1719464957714081</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2070768922567368</v>
+        <v>0.3957046270370483</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1787271961258121</v>
+        <v>0.2224322999736022</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>21.05894088745117</v>
+        <v>27.76734828948975</v>
       </c>
     </row>
   </sheetData>
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06874201446771622</v>
+        <v>0.07221490144729614</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.207969918847084</v>
+        <v>0.2036116868257523</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6731992363929749</v>
+        <v>0.8252372145652771</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2621869837877469</v>
+        <v>0.2687283041424854</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.04558098316193</v>
+        <v>34.10269320011139</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06275174766778946</v>
+        <v>0.06682215631008148</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1955715119838715</v>
+        <v>0.1957864165306091</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6360709071159363</v>
+        <v>0.7767087817192078</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2505029893390286</v>
+        <v>0.2584998187815254</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>31.5996527671814</v>
+        <v>33.37673246860504</v>
       </c>
     </row>
   </sheetData>
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05132215097546577</v>
+        <v>0.07653358578681946</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1784412413835526</v>
+        <v>0.2131046205759048</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4388777911663055</v>
+        <v>0.7328976392745972</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2265439272535589</v>
+        <v>0.2766470418906001</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>27.66163051128387</v>
+        <v>33.51614773273468</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.03863652050495148</v>
+        <v>0.0582992285490036</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1567717045545578</v>
+        <v>0.1851556897163391</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3342334926128387</v>
+        <v>0.6378726363182068</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1965617473084513</v>
+        <v>0.2414523318359208</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.06561279296875</v>
+        <v>30.81084489822388</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA47 Overall Model Peformance Results.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="805" firstSheet="16" activeTab="23" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>21.40085768363254</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1018,19 +1018,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03763383958895779</v>
+        <v>0.0585570828890949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1504992981222304</v>
+        <v>0.1900680500418124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1945955457147209</v>
+        <v>0.6028759923216462</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1939944318503956</v>
+        <v>0.2419857080265174</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.55982312399258</v>
+        <v>33.46158762414411</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1048,19 +1048,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03763832135576382</v>
+        <v>0.0584803335154593</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1504784811858911</v>
+        <v>0.1898826168160094</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1945501714557011</v>
+        <v>0.6024001453881525</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1940059827834281</v>
+        <v>0.2418270735783305</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>21.55630787268383</v>
+        <v>33.43233026935793</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1596,19 +1596,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03247084585778274</v>
+        <v>0.0584631562255932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.14500544422009</v>
+        <v>0.1899874978660923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.194482311678487</v>
+        <v>0.6045655263539704</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1801966865893564</v>
+        <v>0.2417915553231609</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.83194218664812</v>
+        <v>33.43764979906006</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -1626,19 +1626,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.032444243680351</v>
+        <v>0.0460953584721747</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1459493802728665</v>
+        <v>0.1582381125772183</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1959501747702642</v>
+        <v>0.49165621781234</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.18012285718462</v>
+        <v>0.2146982963886177</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.9885148885057</v>
+        <v>28.78730325922711</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1736,23 +1736,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02733604982495308</v>
+        <v>0.059795763</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1394219696521759</v>
+        <v>0.18180677</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2060850262641907</v>
+        <v>0.7363057</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1653361721613062</v>
+        <v>0.2445317225710656</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.91695165634155</v>
+        <v>31.11520707607269</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1766,23 +1766,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02736882865428925</v>
+        <v>0.05433581</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1387260854244232</v>
+        <v>0.17087808</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2024146467447281</v>
+        <v>0.6771189</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1654352702850551</v>
+        <v>0.2331004295235927</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.81499493122101</v>
+        <v>29.82678115367889</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -1798,23 +1798,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0184083990752697</v>
+        <v>0.029951472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1237124353647232</v>
+        <v>0.14623179</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1694901585578918</v>
+        <v>0.19937016</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1356775555324819</v>
+        <v>0.1730649353143924</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.50585532188416</v>
+        <v>20.44733017683029</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1828,23 +1828,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01832523941993713</v>
+        <v>0.034100868</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1165253818035126</v>
+        <v>0.14974721</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1671385765075684</v>
+        <v>0.19685881</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1353707480216355</v>
+        <v>0.1846642028327773</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.67939817905426</v>
+        <v>21.00749909877777</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -2209,19 +2209,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2239,19 +2239,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09335983032898311</v>
+        <v>1.170802037034574</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2734156622904971</v>
+        <v>0.8642565196895642</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1184351786123934</v>
+        <v>0.3663765486411038</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3055484091416336</v>
+        <v>1.082036060875318</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.56681897433462</v>
+        <v>42.36112126079368</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2232536813992681</v>
+        <v>0.986094166151318</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3744445784121971</v>
+        <v>0.7836239884391267</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1446306864402369</v>
+        <v>0.3289167835821648</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4724972818961694</v>
+        <v>0.9930227420111374</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>14.84748623826422</v>
+        <v>37.23600733445321</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2907,23 +2907,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6014033269205097</v>
+        <v>0.6900208355154487</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7292374133129891</v>
+        <v>0.7604349264165166</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3183359447703891</v>
+        <v>0.3345810815674476</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7755019838275784</v>
+        <v>0.8306749277036407</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.17444457366573</v>
+        <v>34.54923139777951</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -2937,23 +2937,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>2.203781807061709</v>
+        <v>1.305872552235733</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.275860654100685</v>
+        <v>1.016694099306052</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4821651652836991</v>
+        <v>0.4537732485429271</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.484513996923474</v>
+        <v>1.142747807801762</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>72.72598412877075</v>
+        <v>49.12206111025102</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3051,23 +3051,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2670807540416718</v>
+        <v>0.9662601</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.307867556810379</v>
+        <v>0.772348</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1998760253190994</v>
+        <v>0.4853592</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.516798562344819</v>
+        <v>0.9829852875649528</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.26883137226105</v>
+        <v>28.75460684299469</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.283248096704483</v>
+        <v>1.1287563</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3820123970508575</v>
+        <v>0.8196218</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2158769816160202</v>
+        <v>0.5233586</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5322105755285994</v>
+        <v>1.062429425756716</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>16.27465039491653</v>
+        <v>29.87386584281921</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3113,23 +3113,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1273571401834488</v>
+        <v>0.4336995</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.268640547990799</v>
+        <v>0.52064633</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1067792624235153</v>
+        <v>0.18898466</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3568713216040885</v>
+        <v>0.6585586447992552</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.926338493824005</v>
+        <v>22.15968817472458</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3143,23 +3143,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07833098620176315</v>
+        <v>1.4831237</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2049962282180786</v>
+        <v>0.98466986</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07877924293279648</v>
+        <v>0.38296485</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2798767339415035</v>
+        <v>1.217835645761605</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.644134014844894</v>
+        <v>44.82606947422028</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.813842177391052</v>
+        <v>1.8132168</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.19799816608429</v>
+        <v>1.1976794</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6732760667800903</v>
+        <v>0.67315143</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.346789581705714</v>
+        <v>1.346557390332127</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>40.06839692592621</v>
+        <v>40.06014168262482</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.425558924674988</v>
+        <v>1.4257431</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.033686876296997</v>
+        <v>1.0337473</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5999994277954102</v>
+        <v>0.6000367</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.193967723464495</v>
+        <v>1.194044849671629</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>35.93122959136963</v>
+        <v>35.93267798423767</v>
       </c>
     </row>
   </sheetData>
@@ -3521,19 +3521,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3547,23 +3547,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09643960375608361</v>
+        <v>0.6783937123473627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2639106313830122</v>
+        <v>0.7311514752053461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1081264351601445</v>
+        <v>0.3106643122614907</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3105472649309338</v>
+        <v>0.8236465943275445</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.0513058029253</v>
+        <v>29.03023378046164</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3082943635388047</v>
+        <v>0.5196288575771555</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3997470928835576</v>
+        <v>0.549020135794043</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1601350746143982</v>
+        <v>0.2564856794164887</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5552426168251179</v>
+        <v>0.7208528681895879</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>17.18264508710619</v>
+        <v>24.20905679256205</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4219,23 +4219,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.017716497279014</v>
+        <v>1.490468959909539</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.147651385482959</v>
+        <v>1.048826545410327</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8028543783757761</v>
+        <v>0.4180050874501985</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.240026003705987</v>
+        <v>1.22084763992463</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>139.7471241570068</v>
+        <v>52.35524983720715</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4249,23 +4249,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.279615805339884</v>
+        <v>2.464844716509506</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.9762817320509301</v>
+        <v>1.453854585423273</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3683686742077462</v>
+        <v>0.543280302464227</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.131201045499819</v>
+        <v>1.569982393694116</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>49.19097794003034</v>
+        <v>77.54667525477994</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4363,23 +4363,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1800056099891663</v>
+        <v>0.31681657</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2902899086475372</v>
+        <v>0.483047</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1329641342163086</v>
+        <v>0.23650964</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4242706800960517</v>
+        <v>0.5628646092752979</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.44611686468124</v>
+        <v>20.98789513111115</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4393,23 +4393,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1731929033994675</v>
+        <v>0.6258446</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2599112689495087</v>
+        <v>0.6240898</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1253679990768433</v>
+        <v>0.35432568</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4161645148249277</v>
+        <v>0.7911034052615797</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.31225249171257</v>
+        <v>23.51084798574448</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4429,19 +4429,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05586042255163193</v>
+        <v>0.28885317</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.20772485435009</v>
+        <v>0.43820962</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07602109760046005</v>
+        <v>0.16122046</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2363480961455622</v>
+        <v>0.5374506195805795</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.567449659109116</v>
+        <v>17.77901947498322</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4459,19 +4459,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04571281373500824</v>
+        <v>1.0480326</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1599462330341339</v>
+        <v>0.8656253</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.05890919268131256</v>
+        <v>0.31737736</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2138055512258937</v>
+        <v>1.023734653809681</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>5.756310373544693</v>
+        <v>37.09556460380554</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.346521973609924</v>
+        <v>1.3486366</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.04928982257843</v>
+        <v>1.0503488</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5274211764335632</v>
+        <v>0.52782226</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.160397334368674</v>
+        <v>1.161308153418922</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>35.31738817691803</v>
+        <v>35.34536063671112</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.301259160041809</v>
+        <v>1.3011245</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.9803926944732666</v>
+        <v>0.980201</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5230556726455688</v>
+        <v>0.5230054</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.140727469662149</v>
+        <v>1.140668424014892</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>33.22745561599731</v>
+        <v>33.22175741195679</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4957,19 +4957,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06639747858404663</v>
+        <v>1.110874099512039</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2151285276866355</v>
+        <v>0.9223890319763234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07714507823956784</v>
+        <v>0.3442987458044593</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2576770819922615</v>
+        <v>1.053980122920749</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.142411052282148</v>
+        <v>42.21766953821444</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3561955119100291</v>
+        <v>0.3301957152098148</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4765276134986741</v>
+        <v>0.4728986854199464</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1772843426664136</v>
+        <v>0.181346138957116</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5968211724713099</v>
+        <v>0.5746265876287094</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.57446021350125</v>
+        <v>19.58749664543173</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5531,23 +5531,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.144971783824377</v>
+        <v>0.6446599970100864</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9780075685174017</v>
+        <v>0.673614718837666</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3474235202912341</v>
+        <v>0.2645678133362806</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.070033543317394</v>
+        <v>0.8029072156918795</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>43.86579806774413</v>
+        <v>29.90300100968993</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5561,23 +5561,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.7028819507798472</v>
+        <v>5.716501257549312</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.6798555195809703</v>
+        <v>2.297243799870076</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2448619062404099</v>
+        <v>0.8717018889338315</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8383805524818948</v>
+        <v>2.390920587880181</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>30.72969510121753</v>
+        <v>156.8773150358603</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5675,23 +5675,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05649728327989578</v>
+        <v>0.8417667</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1838565170764923</v>
+        <v>0.7770889</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06654973328113556</v>
+        <v>0.33787712</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2376915717477079</v>
+        <v>0.9174784548150128</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.681481748819351</v>
+        <v>27.25300192832947</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5709,19 +5709,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05822308734059334</v>
+        <v>0.16799648</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2002695649862289</v>
+        <v>0.24533935</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.07411202043294907</v>
+        <v>0.12888639</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2412946069446919</v>
+        <v>0.4098737379498493</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>7.270994782447815</v>
+        <v>9.989296644926071</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5737,53 +5737,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.6630549</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.67236936</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.23769814</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.8142818206739434</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>28.91710102558136</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.03716888278722763</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.172652393579483</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.06099747866392136</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.1927923307272041</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>6.088782101869583</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.04377714917063713</v>
+        <v>0.65949965</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1763447970151901</v>
+        <v>0.67939085</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06035327166318893</v>
+        <v>0.240425</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.209229895499274</v>
+        <v>0.8120958350054225</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.244621053338051</v>
+        <v>29.12701666355133</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5622509717941284</v>
+        <v>0.5601632</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.65226811170578</v>
+        <v>0.65068036</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.288763701915741</v>
+        <v>0.28815117</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7498339628171883</v>
+        <v>0.7484405119323652</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.84562736749649</v>
+        <v>22.79901951551437</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.3799636363983154</v>
+        <v>0.3777962</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4833956658840179</v>
+        <v>0.4815436</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.224493145942688</v>
+        <v>0.22375028</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6164119048155344</v>
+        <v>0.6146512856067459</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>17.7697479724884</v>
+        <v>17.71305352449417</v>
       </c>
     </row>
   </sheetData>
@@ -6143,19 +6143,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06859894567387627</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2055512775088583</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.556526981460877</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2619140043485195</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>38.85695434189066</v>
+        <v>25.21479245558708</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6173,19 +6173,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06859894567387627</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2055512775088583</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.556526981460877</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2619140043485195</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>38.85695434189066</v>
+        <v>25.21479245558708</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,23 +6263,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4193856260152439</v>
+        <v>0.0287332975239718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5973340539100465</v>
+        <v>0.1431310950637047</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1</v>
+        <v>0.2670306168002965</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.647599896552836</v>
+        <v>0.1695089895078483</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>200</v>
+        <v>24.04975909953028</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6293,23 +6293,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4014295826425991</v>
+        <v>0.0340157501859179</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5821098939100463</v>
+        <v>0.1595392377900872</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9455999238114763</v>
+        <v>0.2947887195610336</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6335847083402496</v>
+        <v>0.1844335928889254</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>182.5663168470839</v>
+        <v>26.8039677458377</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6845,19 +6845,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07484681951638376</v>
+        <v>0.0361580082885414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2134170232314372</v>
+        <v>0.1484347994607233</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.644640430905179</v>
+        <v>0.2841463811672481</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2735814677868071</v>
+        <v>0.1901525921162827</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>39.618228844836</v>
+        <v>24.59021146461813</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6871,23 +6871,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.07484681951638376</v>
+        <v>0.0320152948490484</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2134170232314372</v>
+        <v>0.1343097253073</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.644640430905179</v>
+        <v>0.2546869614986778</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2735814677868071</v>
+        <v>0.1789281834956373</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>39.618228844836</v>
+        <v>22.4436275736751</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06624559313058853</v>
+        <v>0.025466973</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1957633346319199</v>
+        <v>0.12058135</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.518189668655396</v>
+        <v>0.2556777</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2573821927223959</v>
+        <v>0.1595837490536609</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>37.08969056606293</v>
+        <v>20.18961161375046</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7015,23 +7015,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0815393477678299</v>
+        <v>0.026165469</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1910279095172882</v>
+        <v>0.13787568</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.815811157226562</v>
+        <v>0.30749696</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2855509547660975</v>
+        <v>0.1617574375980088</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>34.76765155792236</v>
+        <v>22.45049923658371</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7051,19 +7051,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04986772313714027</v>
+        <v>0.07198341</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1615951955318451</v>
+        <v>0.21386422</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6952639818191528</v>
+        <v>0.2816648</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2233108218092896</v>
+        <v>0.2682972454352629</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>30.1453173160553</v>
+        <v>33.30682516098022</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7081,19 +7081,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07525104284286499</v>
+        <v>0.06251217000000001</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2004921287298203</v>
+        <v>0.17218113</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.8931973576545715</v>
+        <v>0.21469447</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2743192352768303</v>
+        <v>0.250024332412097</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>34.79344844818115</v>
+        <v>26.66631639003754</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02724390663206577</v>
+        <v>0.027070673</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.13738052546978</v>
+        <v>0.13722181</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3067423701286316</v>
+        <v>0.30600432</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1650572828810222</v>
+        <v>0.164531678355892</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.97998666763306</v>
+        <v>22.9615569114685</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04836029186844826</v>
+        <v>0.04836263</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1609974801540375</v>
+        <v>0.16100176</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3230977654457092</v>
+        <v>0.32312652</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2199097357291128</v>
+        <v>0.219915054852449</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>26.74477398395538</v>
+        <v>26.74515247344971</v>
       </c>
     </row>
   </sheetData>
@@ -7449,23 +7449,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05986187363128842</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1511563789635068</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.702263679144231</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2446668625525092</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.16683562275372</v>
+        <v>29.91327163270417</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -7479,23 +7479,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06230538375834057</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1571840546752714</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.783102039701544</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2496104640401531</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>31.52625265009917</v>
+        <v>29.91327163270417</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7573,23 +7573,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4811.977110532675</v>
+        <v>0.4483512649439951</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59.10480237912292</v>
+        <v>0.6487869029743284</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>215.3769136619649</v>
+        <v>1.147566214873794</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>69.36841579950256</v>
+        <v>0.6695903710060316</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>195.0635171818143</v>
+        <v>175.1909882465916</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04990420005153796</v>
+        <v>0.0279525593957884</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1690775027505986</v>
+        <v>0.1220532636704608</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.485266414210569</v>
+        <v>0.2149891449998441</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2233924798455355</v>
+        <v>0.1671901892928783</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>35.34918024308288</v>
+        <v>20.41949203107509</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8151,23 +8151,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05692547314024313</v>
+        <v>0.0397567957909547</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1591915327978086</v>
+        <v>0.1533718645120951</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.647364282666746</v>
+        <v>0.3998848899309169</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2385905973424836</v>
+        <v>0.1993910624650833</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.55766289590066</v>
+        <v>27.28484459729593</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05083991687755052</v>
+        <v>0.0355470817174635</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1455042699550831</v>
+        <v>0.1477995707939614</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.599666454997916</v>
+        <v>0.3988472724433336</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2254770872562233</v>
+        <v>0.1885393373210576</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>29.79174019936112</v>
+        <v>26.4999325410463</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8299,19 +8299,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08508202433586121</v>
+        <v>0.10234396</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2269992083311081</v>
+        <v>0.24384795</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.836361885070801</v>
+        <v>0.7370407</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2916882313976024</v>
+        <v>0.319912428011931</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>52.94162631034851</v>
+        <v>39.27471041679382</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8329,19 +8329,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1757808178663254</v>
+        <v>0.035466924</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3673194944858551</v>
+        <v>0.12743554</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>2.177967309951782</v>
+        <v>0.43405572</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4192622304314155</v>
+        <v>0.1883266425913511</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>65.88282585144043</v>
+        <v>23.02145659923553</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8357,23 +8357,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2844502329826355</v>
+        <v>0.03557862</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4123527109622955</v>
+        <v>0.15494078</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9491940140724182</v>
+        <v>0.22808729</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5333387600602787</v>
+        <v>0.1886229564203395</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>90.13751149177551</v>
+        <v>24.55517202615738</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8391,19 +8391,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08139245212078094</v>
+        <v>0.044715855</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1992930620908737</v>
+        <v>0.17767882</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.8507301211357117</v>
+        <v>0.2716437</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2852936243956057</v>
+        <v>0.2114612382225739</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>36.20864450931549</v>
+        <v>24.95399862527848</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2273407727479935</v>
+        <v>0.22726941</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3293191194534302</v>
+        <v>0.32934135</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.218371748924255</v>
+        <v>1.2182565</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4768026559783339</v>
+        <v>0.4767278165652138</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>45.06390392780304</v>
+        <v>45.07617950439453</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.03477193415164948</v>
+        <v>0.034835145</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.129129096865654</v>
+        <v>0.12924862</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4515850841999054</v>
+        <v>0.45194128</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1864723415191901</v>
+        <v>0.1866417554499361</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>23.34436327219009</v>
+        <v>23.36352467536926</v>
       </c>
     </row>
   </sheetData>
@@ -8759,23 +8759,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09523579057937015</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1860972853777647</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.072632686313288</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3086029659276951</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>31.71909051771148</v>
+        <v>33.28195026169174</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8789,23 +8789,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'random', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 70, 'max_features': 'log2', 'max_depth': 16, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1103032197029432</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2389141386875211</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.109518864994992</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3321192853523313</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>39.73773633687732</v>
+        <v>33.28195026169174</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8883,23 +8883,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3858900725342742</v>
+        <v>0.0381260647306827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5907627481667352</v>
+        <v>0.1445691184707576</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.176503833387134</v>
+        <v>0.3565588199954786</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6212005091226779</v>
+        <v>0.1952589683745224</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>164.1752082151972</v>
+        <v>26.06898579455435</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8913,23 +8913,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.6842141170941715</v>
+        <v>0.0381653676634395</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.6318760185563018</v>
+        <v>0.1454173277084325</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>2.002592956433329</v>
+        <v>0.3362773574193419</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.8271723623853564</v>
+        <v>0.1953595855427614</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>118.1620012892488</v>
+        <v>25.86504844450545</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9461,23 +9461,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06477210030757304</v>
+        <v>0.0440357530573975</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1713811898496335</v>
+        <v>0.1700390744052858</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.757976072222</v>
+        <v>0.477233544394583</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.254503635155911</v>
+        <v>0.209846975335356</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.12915789503808</v>
+        <v>31.33071829092007</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9491,23 +9491,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05827404846741133</v>
+        <v>0.0414715426448866</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.163183969490677</v>
+        <v>0.1578693388238436</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.756983062863264</v>
+        <v>0.3709923278877874</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2414001832381478</v>
+        <v>0.2036456300657753</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>31.19546928112744</v>
+        <v>29.39459647209455</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9605,23 +9605,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06617365032434464</v>
+        <v>0.03337838</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2081348299980164</v>
+        <v>0.12047968</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.368758320808411</v>
+        <v>0.5695092</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2572423960476667</v>
+        <v>0.1826975130703511</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>57.20034837722778</v>
+        <v>23.94119799137115</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9635,23 +9635,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1067457422614098</v>
+        <v>0.03497949</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2638147473335266</v>
+        <v>0.12675646</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.818794727325439</v>
+        <v>0.5682682999999999</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3267196692294631</v>
+        <v>0.1870280425514534</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>67.1557605266571</v>
+        <v>24.3095189332962</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9671,19 +9671,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04946786910295486</v>
+        <v>0.02479291</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1606651991605759</v>
+        <v>0.1107718</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5527150630950928</v>
+        <v>0.18526734</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2224137340699869</v>
+        <v>0.1574576438988986</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.46785485744476</v>
+        <v>17.63959974050522</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9697,23 +9697,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08772297948598862</v>
+        <v>0.02387987</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2380416095256805</v>
+        <v>0.11601456</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.3859944343566895</v>
+        <v>0.19152349</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2961806534633696</v>
+        <v>0.1545311320490526</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>50.53036212921143</v>
+        <v>18.14815104007721</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03512078523635864</v>
+        <v>0.035263155</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1469042748212814</v>
+        <v>0.14720303</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5116500854492188</v>
+        <v>0.5126242600000001</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1874054034342624</v>
+        <v>0.1877848626905133</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>27.8651624917984</v>
+        <v>27.89928019046783</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04465950652956963</v>
+        <v>0.044744126</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1713461577892303</v>
+        <v>0.171342</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.461700975894928</v>
+        <v>0.46183828</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2113279596493792</v>
+        <v>0.2115280749657103</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>32.45477676391602</v>
+        <v>32.47901797294617</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7489022261507635</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3833229294343239</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6568337742657995</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8653913716641526</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.57168043920147</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.7489022261507635</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3833229294343239</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6568337742657995</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8653913716641526</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>18.57168043920147</v>
+        <v>10.7104634776949</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10193,23 +10193,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.58905079044966</v>
+        <v>1839592.478485509</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.485701849945823</v>
+        <v>1086.070215438302</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1</v>
+        <v>407.8235263603209</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.566914644169077</v>
+        <v>1356.315773883615</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>200</v>
+        <v>198.5045094442919</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10223,23 +10223,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 2000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 0.15, 'fit_intercept': False, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>125.1503507125685</v>
+        <v>0.3050986252269249</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>9.510532986507542</v>
+        <v>0.4070542162986348</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>4.852911560285423</v>
+        <v>0.1652619443951239</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>11.18706175510659</v>
+        <v>0.55235733472719</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>131.081905681019</v>
+        <v>16.84081354183538</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6701166026516419</v>
+        <v>0.5978056760254803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3700900042554964</v>
+        <v>0.4309435841932528</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6280550073787261</v>
+        <v>0.1721114010533189</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8186065004943718</v>
+        <v>0.7731789417886912</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.45698402398672</v>
+        <v>19.87038114871232</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.6762162164075802</v>
+        <v>0.3310047696300963</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.363929605783777</v>
+        <v>0.4193094341777793</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6283808218570994</v>
+        <v>0.1652919661691057</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8223236688844486</v>
+        <v>0.575330139685117</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>18.19305588740395</v>
+        <v>17.6923163056521</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10919,19 +10919,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7760469317436218</v>
+        <v>0.36846995</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4969831705093384</v>
+        <v>0.44050902</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6901900172233582</v>
+        <v>0.20705745</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8809352596778164</v>
+        <v>0.6070172596697621</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.9307159781456</v>
+        <v>16.29649847745895</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10945,23 +10945,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.9008345007896423</v>
+        <v>0.21405007</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5674338936805725</v>
+        <v>0.38219047</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7526904940605164</v>
+        <v>0.16585033</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.9491230166788931</v>
+        <v>0.4626554543624576</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.41487812995911</v>
+        <v>15.37095010280609</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10981,19 +10981,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4863475561141968</v>
+        <v>0.48581198</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.512515127658844</v>
+        <v>0.5850408</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4936191439628601</v>
+        <v>0.21191041</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6973862316637723</v>
+        <v>0.697002136710188</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.8033572435379</v>
+        <v>20.12338042259216</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11007,23 +11007,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4583840072154999</v>
+        <v>0.8813204</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4673917591571808</v>
+        <v>0.5599307</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4840605556964874</v>
+        <v>0.18920347</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6770406244942027</v>
+        <v>0.938786672746976</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.61184346675873</v>
+        <v>26.02255046367645</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3201.905029296875</v>
+        <v>3200.963</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>43.16402435302734</v>
+        <v>43.174057</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.78234481811523</v>
+        <v>17.783888</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>56.58537822880461</v>
+        <v>56.57705268591676</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>185.0623846054077</v>
+        <v>185.749340057373</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2950990200042725</v>
+        <v>0.29421097</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3790708780288696</v>
+        <v>0.37799817</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1777375042438507</v>
+        <v>0.17725809</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.543230172214571</v>
+        <v>0.5424121775935381</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>14.27372694015503</v>
+        <v>14.23747837543488</v>
       </c>
     </row>
   </sheetData>
@@ -11379,23 +11379,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7071717854332346</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4318818738126662</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6634360082505488</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8409350661217753</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>20.92225005405011</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11409,23 +11409,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.6915869264325225</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.468374383415217</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6607284450859555</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8316170551597186</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>22.3845536474005</v>
+        <v>14.00947691908368</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11503,53 +11503,53 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3788959478144672</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4635277045073472</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1963937916550149</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6155452443277157</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>20.32069366529119</v>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Stochastic Gradient Descent Regressor</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
           <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>285.2743243458844</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>15.09827344545834</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>9.198632504130543</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>16.8900658478848</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>149.9069714961325</v>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Stochastic Gradient Descent Regressor</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
-        </is>
-      </c>
       <c r="L11" s="8" t="n">
-        <v>5.905237250956609</v>
+        <v>22.57930900417725</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.266072639036602</v>
+        <v>3.661247839933934</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9503591857139283</v>
+        <v>1.591029032578723</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.43006939221015</v>
+        <v>4.751769039439654</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>147.3400253498036</v>
+        <v>121.4328819134568</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12081,53 +12081,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.3081221237173491</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3583571450031876</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1661000351503163</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5550874919482055</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>16.56028407087456</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.6821118226234973</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.4076763987794984</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.6705056708900476</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.8259006130422094</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>20.16848093984773</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.6234993670634158</v>
+        <v>0.5148829595152903</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3676063867349738</v>
+        <v>0.4644279709859528</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6084047968119913</v>
+        <v>0.180042536506322</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7896197610644099</v>
+        <v>0.7175534541170367</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>18.54238445159354</v>
+        <v>21.04189367813499</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12225,53 +12225,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.7709314</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.7106935</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.39373824</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.8780270056840044</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.86290538311005</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.715087354183197</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.4306710958480835</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.7032532095909119</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.8456283782981724</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>21.16528451442719</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.7579759359359741</v>
+        <v>0.7383073999999999</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3957212567329407</v>
+        <v>0.5035109</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6874088048934937</v>
+        <v>0.27688563</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8706181343941637</v>
+        <v>0.8592481692963078</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.20430064201355</v>
+        <v>24.1081029176712</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12287,53 +12287,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.32641327</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.42100748</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.14770024</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.5713258910738601</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>16.30654335021973</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.5403732657432556</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.4848618805408478</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.6059618592262268</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.7351008541304082</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>21.39575630426407</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.3613406717777252</v>
+        <v>0.28360635</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3968012928962708</v>
+        <v>0.41706938</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4787616431713104</v>
+        <v>0.15086314</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6011161882512608</v>
+        <v>0.5325470405719156</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.77577102184296</v>
+        <v>16.28277748823166</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3038831353187561</v>
+        <v>0.30391702</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3008875846862793</v>
+        <v>0.3008973</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2162643522024155</v>
+        <v>0.21627596</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5512559617081307</v>
+        <v>0.5512866954310714</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.13444972038269</v>
+        <v>13.13469260931015</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1059.855712890625</v>
+        <v>1060.152</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>23.72984886169434</v>
+        <v>23.73406</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>11.07570648193359</v>
+        <v>11.07767</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>32.55542524512044</v>
+        <v>32.55997508504978</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>155.0041913986206</v>
+        <v>154.9605369567871</v>
       </c>
     </row>
   </sheetData>
@@ -12693,19 +12693,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.672366185836622</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4596657211954301</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3795317704553525</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8199793813484715</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.56715269209275</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12719,23 +12719,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.7563544333389681</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.42892628093809</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3811458218663171</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8696863994216353</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>20.57665236034062</v>
+        <v>16.53272817053076</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12817,19 +12817,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5421385820083997</v>
+        <v>0.3887179001841202</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3246346341398593</v>
+        <v>0.4524909841259329</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3105415409511844</v>
+        <v>0.2512316426927862</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7363006057368143</v>
+        <v>0.6234724534284737</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.66805514719914</v>
+        <v>20.54458222989941</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12843,23 +12843,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.61763668584692</v>
+        <v>0.385547008311595</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.501593190320899</v>
+        <v>0.4496962281275544</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.039003823492317</v>
+        <v>0.2494574225539981</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.572476760992588</v>
+        <v>0.6209243177003096</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>174.0271719393158</v>
+        <v>20.42624858821721</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13391,23 +13391,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5758379768200454</v>
+        <v>0.4986045405872097</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3742812446145128</v>
+        <v>0.4864705086032859</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3359811207155414</v>
+        <v>0.229969121872705</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7588398887908078</v>
+        <v>0.7061193529334894</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.58659158997278</v>
+        <v>22.92114271602421</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13421,23 +13421,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.6598130188278361</v>
+        <v>0.4348503906048911</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4134751354274766</v>
+        <v>0.4146118940133989</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.360841132675365</v>
+        <v>0.2120055801525937</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8122887533555023</v>
+        <v>0.6594318695702318</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.24196947614101</v>
+        <v>20.45468240060746</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13535,23 +13535,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7567207813262939</v>
+        <v>0.61446905</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3849770128726959</v>
+        <v>0.5803717</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3730822801589966</v>
+        <v>0.3762943</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8698969946644798</v>
+        <v>0.7838807634845264</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.3367058634758</v>
+        <v>23.49251210689545</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13565,23 +13565,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.7057036161422729</v>
+        <v>0.54496956</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4458471238613129</v>
+        <v>0.46193495</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3830723762512207</v>
+        <v>0.34519804</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.840061674011065</v>
+        <v>0.7382205352845587</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.80069482326508</v>
+        <v>19.2813366651535</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13597,53 +13597,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.12150013</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.25547808</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.102796204</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3485686833573808</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.05340069532394</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.2990583181381226</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.285831481218338</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.1919155716896057</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.5468622478633194</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>12.5150740146637</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.3085441887378693</v>
+        <v>0.18601008</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3997705280780792</v>
+        <v>0.31637052</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2179728895425797</v>
+        <v>0.1261183</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.555467540669902</v>
+        <v>0.4312888563314739</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.85176491737366</v>
+        <v>12.6159593462944</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.28587806224823</v>
+        <v>0.28666487</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3275477290153503</v>
+        <v>0.32817385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2442348301410675</v>
+        <v>0.2446618</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5346756607965524</v>
+        <v>0.5354109387765509</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.28849303722382</v>
+        <v>15.31006544828415</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.3493086099624634</v>
+        <v>0.34833828</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3536272644996643</v>
+        <v>0.35284513</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2706869542598724</v>
+        <v>0.270325</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5910233582206911</v>
+        <v>0.5902018943953352</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>16.06845110654831</v>
+        <v>16.04080051183701</v>
       </c>
     </row>
   </sheetData>
@@ -13963,23 +13963,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0320894085050961</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1362040598139748</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.2774183152652609</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1791351682531827</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>23.24076435976721</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14055,19 +14055,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03569713729591532</v>
+        <v>0.0438099977836481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1445734732232896</v>
+        <v>0.162551529405772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1859402920328705</v>
+        <v>0.3397517646244158</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1889368606066993</v>
+        <v>0.2093083796307452</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.58810486503038</v>
+        <v>26.62952379912313</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02778150037787732</v>
+        <v>0.0362646512358915</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1319729535441178</v>
+        <v>0.1399256121764695</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1807014114008922</v>
+        <v>0.2851931683000768</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1666778340928311</v>
+        <v>0.1904327997900874</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.1316643248931</v>
+        <v>23.27866668729329</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14611,23 +14611,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02637754194438457</v>
+        <v>0.101669915</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1295563876628876</v>
+        <v>0.26480576</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1983630061149597</v>
+        <v>0.6460034</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1624116435000415</v>
+        <v>0.3188572016129882</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.5084193944931</v>
+        <v>36.95431053638458</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -14655,23 +14655,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0098566934466362</v>
+        <v>0.024802685</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08166670799255371</v>
+        <v>0.12821916</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1119758784770966</v>
+        <v>0.17429148</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09928088157664697</v>
+        <v>0.1574886814470663</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.96727028489113</v>
+        <v>17.94148087501526</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04976315796375275</v>
+        <v>0.04977828</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1816519498825073</v>
+        <v>0.18168399</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3628309369087219</v>
+        <v>0.36284003</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2230765742155656</v>
+        <v>0.2231104634863058</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.05844056606293</v>
+        <v>30.06458282470703</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15021,23 +15021,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02689824965358115</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1269589042499646</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3224610133514452</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1640068585565285</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>22.46163430177055</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15055,19 +15055,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.89228775050308</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15145,23 +15145,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04368284005355472</v>
+        <v>0.06773169043605751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1614177373331092</v>
+        <v>0.2091329002885126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2982678972472317</v>
+        <v>0.7527780862902532</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2090044019956391</v>
+        <v>0.2602531276201259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.78409142910181</v>
+        <v>37.93789869843239</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15175,23 +15175,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04368432577610153</v>
+        <v>0.0676282748367691</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1614203752158277</v>
+        <v>0.2089367591503214</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2982881771612452</v>
+        <v>0.7522284993089611</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2090079562507168</v>
+        <v>0.2600543690015016</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.78501467164678</v>
+        <v>37.90751932028367</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15727,19 +15727,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03794521105237865</v>
+        <v>0.0674329008815691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1495221756607202</v>
+        <v>0.2088630177250339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3836669837846137</v>
+        <v>0.7530095819601339</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1947953055193545</v>
+        <v>0.2596784567143935</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>25.85661410879682</v>
+        <v>37.89204818517277</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15753,23 +15753,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03784896384818334</v>
+        <v>0.0456752314061177</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1491583366869997</v>
+        <v>0.1769317172013781</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3798236162997524</v>
+        <v>0.5807354306024004</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1945481016308906</v>
+        <v>0.2137176441151215</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>25.79848454064602</v>
+        <v>34.63463117869033</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15871,19 +15871,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03795976936817169</v>
+        <v>0.09358933999999999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1525033861398697</v>
+        <v>0.23513354</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4705651700496674</v>
+        <v>1.0759618</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1948326701766716</v>
+        <v>0.3059237537861167</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.24450325965881</v>
+        <v>38.91763389110565</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15897,23 +15897,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03376106172800064</v>
+        <v>0.06950334</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1344843357801437</v>
+        <v>0.20323488</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4581624269485474</v>
+        <v>0.91462004</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1837418344525836</v>
+        <v>0.2636348557092777</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.66623729467392</v>
+        <v>35.71574687957764</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -15929,23 +15929,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02423194237053394</v>
+        <v>0.053289223</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1178504377603531</v>
+        <v>0.18346101</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1840017288923264</v>
+        <v>0.3869958</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1556661246724346</v>
+        <v>0.2308445872493943</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.30176955461502</v>
+        <v>29.38126921653748</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15963,19 +15963,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0215039849281311</v>
+        <v>0.040279347</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1104098111391068</v>
+        <v>0.1500071</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1536483019590378</v>
+        <v>0.31672102</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1466423708487117</v>
+        <v>0.2006971535661158</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.68930447101593</v>
+        <v>23.99062365293503</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16299,19 +16299,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16383,23 +16383,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08153130775767115</v>
+        <v>0.051420888289564</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2490129266374416</v>
+        <v>0.1800179968229707</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.422765260631271</v>
+        <v>0.4905689763619606</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2855368763534251</v>
+        <v>0.2267617434435624</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>37.27629010825425</v>
+        <v>31.27907201805609</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16817,23 +16817,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02748870088239512</v>
+        <v>0.0329638267736438</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1319707991169879</v>
+        <v>0.1311572068939733</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2335832605989801</v>
+        <v>0.4053724767369365</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1657971678961831</v>
+        <v>0.1815594304178216</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>21.2569252864428</v>
+        <v>23.54648689287282</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16943,23 +16943,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02194736525416374</v>
+        <v>0.053043246</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1175803765654564</v>
+        <v>0.17918473</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2508431971073151</v>
+        <v>0.6082238</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1481464317969344</v>
+        <v>0.2303111944071023</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.49614882469177</v>
+        <v>30.19417226314545</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -16987,23 +16987,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03792789578437805</v>
+        <v>0.03129182</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.169702559709549</v>
+        <v>0.14319792</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2378892153501511</v>
+        <v>0.24906005</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1947508556704644</v>
+        <v>0.1768949408798638</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.5937625169754</v>
+        <v>20.78647911548615</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05016268417239189</v>
+        <v>0.050161898</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1717063784599304</v>
+        <v>0.1717015</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5583181977272034</v>
+        <v>0.55831355</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2239702751982769</v>
+        <v>0.223968520413336</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.36278283596039</v>
+        <v>29.36196327209473</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17321,19 +17321,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.89228775050308</v>
+        <v>33.28195026169174</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17405,23 +17405,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06118280541077157</v>
+        <v>0.0605654133710867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2014698754860512</v>
+        <v>0.1956612496922727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3414874813718003</v>
+        <v>0.6154987812419296</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2473515825920092</v>
+        <v>0.246100413187558</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>32.68423181210689</v>
+        <v>34.71424952864186</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17839,23 +17839,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03810302324026226</v>
+        <v>0.0444439234215101</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1508066288156122</v>
+        <v>0.1632189254782504</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4082291598764175</v>
+        <v>0.5264021828684724</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1951999570703392</v>
+        <v>0.2108172749598812</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>25.98398751101334</v>
+        <v>29.83309109758911</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17965,23 +17965,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0517437718808651</v>
+        <v>0.059134558</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1600802093744278</v>
+        <v>0.19282277</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4967191219329834</v>
+        <v>0.63360894</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.227472573909175</v>
+        <v>0.2431759812218474</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.59850323200226</v>
+        <v>34.14918482303619</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18009,23 +18009,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01785369403660297</v>
+        <v>0.041700624</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1038466021418571</v>
+        <v>0.16450225</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1717582195997238</v>
+        <v>0.35454145</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1336177160282385</v>
+        <v>0.2042073062588618</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.76379984617233</v>
+        <v>25.36481320858002</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06570649892091751</v>
+        <v>0.06570924</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1977661699056625</v>
+        <v>0.19776857</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7681564092636108</v>
+        <v>0.7681793</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2563327893986985</v>
+        <v>0.2563381374953348</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.76418650150299</v>
+        <v>33.76434743404388</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18431,19 +18431,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1724842860666826</v>
+        <v>0.2486639135298062</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3460490700451048</v>
+        <v>0.4018227435094715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1189552117056649</v>
+        <v>0.1686305601141988</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4153122753623863</v>
+        <v>0.4986621236165889</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.96461974067126</v>
+        <v>16.25497060119073</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18861,23 +18861,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2610313471757773</v>
+        <v>0.5139220937815152</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3369016786693642</v>
+        <v>0.5412428403440539</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1242756303832841</v>
+        <v>0.2122345529906687</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5109122695490659</v>
+        <v>0.7168835984882868</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>14.90432825846339</v>
+        <v>23.48930316780163</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18987,23 +18987,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05579258874058723</v>
+        <v>0.17312591</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1986945867538452</v>
+        <v>0.24497965</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07241837680339813</v>
+        <v>0.12711476</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2362045485179894</v>
+        <v>0.4160840152886673</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.21464604139328</v>
+        <v>10.01050844788551</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -19031,23 +19031,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04172956943511963</v>
+        <v>0.08539088</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1755532622337341</v>
+        <v>0.21483843</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06249072775244713</v>
+        <v>0.07302514</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2042781668096706</v>
+        <v>0.2922171807131232</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.203464046120644</v>
+        <v>7.791623473167419</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1882681995630264</v>
+        <v>0.1883046</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3443377315998077</v>
+        <v>0.34438863</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1497099101543427</v>
+        <v>0.14972451</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4338988356322547</v>
+        <v>0.433940782941432</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.90862166881561</v>
+        <v>13.91067504882812</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19453,19 +19453,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2297308723303605</v>
+        <v>0.3122819987212999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3913141357776261</v>
+        <v>0.4419921933147713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1563646991258796</v>
+        <v>0.2306172592147443</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4793024852119593</v>
+        <v>0.5588219740859337</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.57141176270479</v>
+        <v>18.98614183964271</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19883,23 +19883,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7433378877195518</v>
+        <v>0.7209059900508538</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5922716788478559</v>
+        <v>0.7315051816266247</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2274472838124417</v>
+        <v>0.3058541070341126</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8621704516622869</v>
+        <v>0.8490618293451035</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>30.5309877600662</v>
+        <v>33.89483808197265</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20009,23 +20009,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1494839638471603</v>
+        <v>0.8021061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.259036123752594</v>
+        <v>0.7378277</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1217478513717651</v>
+        <v>0.40678298</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3866315608523965</v>
+        <v>0.8956037530288842</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.32296121120453</v>
+        <v>26.79923176765442</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20057,19 +20057,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05461011454463005</v>
+        <v>0.08588767999999999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.202062115073204</v>
+        <v>0.23716034</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07486121356487274</v>
+        <v>0.083083294</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2336880710362214</v>
+        <v>0.2930659959250618</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.322853058576584</v>
+        <v>8.72422382235527</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7077682018280029</v>
+        <v>0.7110568</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6508686542510986</v>
+        <v>0.6532321</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3752604126930237</v>
+        <v>0.37626672</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8412896063948507</v>
+        <v>0.8432418564675501</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.16518479585648</v>
+        <v>24.2344856262207</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20475,19 +20475,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2981000639644403</v>
+        <v>0.379450098772021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4273607569762428</v>
+        <v>0.4765763087843093</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2197904417339203</v>
+        <v>0.2862972329707138</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5459854063658115</v>
+        <v>0.6159952100236016</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.14389646515475</v>
+        <v>21.21325351402664</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20905,23 +20905,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4532128801655349</v>
+        <v>1.245005283959281</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5315301459515523</v>
+        <v>0.8475472306895074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2246845201646838</v>
+        <v>0.3853580972973252</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6732108734754177</v>
+        <v>1.115798048017329</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>23.12557239930341</v>
+        <v>42.11398750075095</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21031,23 +21031,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2709657251834869</v>
+        <v>1.0384496</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3214711248874664</v>
+        <v>0.8371984</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2050397992134094</v>
+        <v>0.5124334</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5205436823010025</v>
+        <v>1.01904349516712</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.81336003541946</v>
+        <v>30.68893849849701</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21075,23 +21075,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08817869424819946</v>
+        <v>0.41262978</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2268739342689514</v>
+        <v>0.565299</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0896955281496048</v>
+        <v>0.21088903</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2969489758328853</v>
+        <v>0.642362657035365</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.469158411026001</v>
+        <v>23.04660379886627</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6333100199699402</v>
+        <v>0.6331331</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5401325821876526</v>
+        <v>0.5399863</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3818592429161072</v>
+        <v>0.38179508</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7958077782793658</v>
+        <v>0.7956966214483048</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.90844714641571</v>
+        <v>21.90394252538681</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21445,19 +21445,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21475,19 +21475,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.8385981240602</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21569,19 +21569,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02956122128680362</v>
+        <v>0.0608354356218731</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1208428424580751</v>
+        <v>0.1972494259291968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2096288611747208</v>
+        <v>0.6567050522564003</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1719337700592982</v>
+        <v>0.2466484048638327</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>19.05816616250095</v>
+        <v>35.43272774958401</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21599,19 +21599,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02957115077465156</v>
+        <v>0.0607393159933358</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1209080136496354</v>
+        <v>0.1970442462858256</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2097097453164751</v>
+        <v>0.6561503828391887</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1719626435440313</v>
+        <v>0.246453476326336</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>19.06945434884061</v>
+        <v>35.40039861534031</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22147,19 +22147,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02240670554241686</v>
+        <v>0.0605482152374781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.118237010808484</v>
+        <v>0.196802842292038</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2153444065580182</v>
+        <v>0.6577627075443189</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1496886954396252</v>
+        <v>0.2460654694130775</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.24583031762322</v>
+        <v>35.34839670695711</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22177,19 +22177,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.02247325104091318</v>
+        <v>0.0442719058961799</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1189721923157131</v>
+        <v>0.1634208019481859</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2164989232034805</v>
+        <v>0.5543143487682655</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1499108102870276</v>
+        <v>0.2104089016562273</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>19.37967130175909</v>
+        <v>30.61002911359511</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22287,23 +22287,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03322118893265724</v>
+        <v>0.0653917</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1414065957069397</v>
+        <v>0.1934616</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3330565392971039</v>
+        <v>0.8222419</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1822668069963844</v>
+        <v>0.2557180028655321</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.76069819927216</v>
+        <v>33.50524008274078</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22317,23 +22317,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.01737884804606438</v>
+        <v>0.06614633</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.09557728469371796</v>
+        <v>0.19738439</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2293814569711685</v>
+        <v>0.8297787</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1318288589272636</v>
+        <v>0.2571892864123537</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>15.90847969055176</v>
+        <v>34.01945531368256</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -22349,23 +22349,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.00818029697984457</v>
+        <v>0.036281254</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06862854957580566</v>
+        <v>0.15955007</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08970505744218826</v>
+        <v>0.29627258</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09044499422214902</v>
+        <v>0.1904763873621158</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.261932224035263</v>
+        <v>23.84487688541412</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22379,23 +22379,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01338560879230499</v>
+        <v>0.036939688</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.08518577367067337</v>
+        <v>0.16398828</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1115127876400948</v>
+        <v>0.2945886</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.115696191779613</v>
+        <v>0.1921970031683768</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>11.08810529112816</v>
+        <v>24.48467314243317</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.834417109646166</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1628636131495593</v>
+        <v>0.3823904634019501</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3377979361388703</v>
+        <v>0.4864704125147606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1161271166519597</v>
+        <v>0.2856803644840365</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4035636420065109</v>
+        <v>0.6183772824109487</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.60852895859375</v>
+        <v>21.50707720276595</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1629166628979162</v>
+        <v>0.3823904634019501</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3378819569819906</v>
+        <v>0.4864704125147606</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1161572804640655</v>
+        <v>0.2856803644840365</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4036293632751664</v>
+        <v>0.6183772824109487</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>12.61196874190604</v>
+        <v>21.50707720276595</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23453,23 +23453,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.230697619217411</v>
+        <v>0.6023219825367075</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2855183432398787</v>
+        <v>0.5639306497782678</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09542761833634698</v>
+        <v>0.3184895366642806</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.480309919965652</v>
+        <v>0.7760940552128379</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>11.01373594577751</v>
+        <v>25.55698681160657</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23483,23 +23483,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1037189566533299</v>
+        <v>0.6023219825367075</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2689539436177436</v>
+        <v>0.5639306497782678</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.09391019593048952</v>
+        <v>0.3184895366642806</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.3220542759432483</v>
+        <v>0.7760940552128379</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>10.02378404803493</v>
+        <v>25.55698681160657</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23597,23 +23597,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06026884540915489</v>
+        <v>0.7400924</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1915303617715836</v>
+        <v>0.63920736</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07203442603349686</v>
+        <v>0.418391</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2454971393095139</v>
+        <v>0.8602862295399973</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.96130245923996</v>
+        <v>24.69001412391662</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23627,23 +23627,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05740121379494667</v>
+        <v>0.8734404</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1959397494792938</v>
+        <v>0.73531187</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.07189146429300308</v>
+        <v>0.4607724</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2395855041419382</v>
+        <v>0.93458032552842</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>7.114569842815399</v>
+        <v>27.49053835868835</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23659,23 +23659,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03782704472541809</v>
+        <v>0.23940411</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1698725819587708</v>
+        <v>0.40864807</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06029487401247025</v>
+        <v>0.14037491</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1944917600450417</v>
+        <v>0.4892893950420356</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.00341409444809</v>
+        <v>15.54562151432037</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23689,23 +23689,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04381696507334709</v>
+        <v>0.119916424</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.184445858001709</v>
+        <v>0.28746438</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06525996327400208</v>
+        <v>0.09837781</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2093250225686052</v>
+        <v>0.3462895091613884</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.519182771444321</v>
+        <v>10.5433464050293</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24066,19 +24066,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.2017972742216</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2959787871631911</v>
+        <v>0.4579092648405883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4230976134393362</v>
+        <v>0.5310860692945998</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2192790157511738</v>
+        <v>0.3668603805083033</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5440393250153808</v>
+        <v>0.676689932569259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.94760461580853</v>
+        <v>24.45055543487659</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2959152541837547</v>
+        <v>0.4579092648405883</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4230847932628211</v>
+        <v>0.5310860692945998</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2192397017284543</v>
+        <v>0.3668603805083033</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5439809318199993</v>
+        <v>0.676689932569259</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>17.94733999142397</v>
+        <v>24.45055543487659</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24768,19 +24768,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3539665304649598</v>
+        <v>0.5453520634767691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.41953007530234</v>
+        <v>0.5319903059793151</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.180733668339308</v>
+        <v>0.375933770134208</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5949508639080708</v>
+        <v>0.7384795619898827</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.53016633221354</v>
+        <v>24.87612602461549</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24798,19 +24798,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1855823837261693</v>
+        <v>0.5453520634767691</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3023885401146235</v>
+        <v>0.5319903059793151</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.166411239417908</v>
+        <v>0.375933770134208</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4307927387110527</v>
+        <v>0.7384795619898827</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>13.33257896217994</v>
+        <v>24.87612602461549</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24908,23 +24908,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2670885622501373</v>
+        <v>0.49612004</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3176352977752686</v>
+        <v>0.4152883</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2024473398923874</v>
+        <v>0.38579664</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5168061166918764</v>
+        <v>0.7043578888948047</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.6867344379425</v>
+        <v>19.20156031847</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24938,23 +24938,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2656004428863525</v>
+        <v>0.44415578</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3256699740886688</v>
+        <v>0.39802268</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2039687484502792</v>
+        <v>0.36372858</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5153643787519201</v>
+        <v>0.6664501350147409</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.98976594209671</v>
+        <v>18.72794181108475</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24970,23 +24970,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09313448518514633</v>
+        <v>0.41006008</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2408904135227203</v>
+        <v>0.55630296</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09496612101793289</v>
+        <v>0.21688692</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3051794311305176</v>
+        <v>0.640359334987517</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.976512402296066</v>
+        <v>22.91408777236938</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25000,23 +25000,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08840176463127136</v>
+        <v>0.43328318</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.235616147518158</v>
+        <v>0.5949784</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.0924072340130806</v>
+        <v>0.23034467</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.29732434248018</v>
+        <v>0.6582424933095689</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.789518475532532</v>
+        <v>24.59090501070022</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -25377,19 +25377,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25407,19 +25407,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.02166239305382</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25501,19 +25501,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2172884665480757</v>
+        <v>0.407090009431867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3810737767610329</v>
+        <v>0.5024685219188231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1533203234434002</v>
+        <v>0.3124087750180881</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4661421098206808</v>
+        <v>0.6380360565296189</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.11311612044268</v>
+        <v>22.56320219793756</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2172013511488236</v>
+        <v>0.407090009431867</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3810080822918693</v>
+        <v>0.5024685219188231</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1532743777513721</v>
+        <v>0.3124087750180881</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4660486574906353</v>
+        <v>0.6380360565296189</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>15.11054213237496</v>
+        <v>22.56320219793756</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26075,23 +26075,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.160582120715858</v>
+        <v>0.5498592424480625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2762904544740852</v>
+        <v>0.5234561745370566</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.10623312210171</v>
+        <v>0.3292382509811373</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4007269902512907</v>
+        <v>0.7415249439149452</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>11.13618774031245</v>
+        <v>24.0070358224978</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -26105,23 +26105,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1329967440077382</v>
+        <v>0.5498592424480625</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2777356004320552</v>
+        <v>0.5234561745370566</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1042812585787491</v>
+        <v>0.3292382509811373</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.3646871865143306</v>
+        <v>0.7415249439149452</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>11.00004047901087</v>
+        <v>24.0070358224978</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26219,23 +26219,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1510717123746872</v>
+        <v>0.4993609</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2624574899673462</v>
+        <v>0.42846432</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1229183152318001</v>
+        <v>0.3479825</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3886794468127781</v>
+        <v>0.7066547170976756</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.44742837548256</v>
+        <v>18.73215287923813</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26249,23 +26249,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1491155028343201</v>
+        <v>0.40959033</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2577824294567108</v>
+        <v>0.4803916</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1213574931025505</v>
+        <v>0.315631</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3861547653911837</v>
+        <v>0.6399924481587107</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.27905866503716</v>
+        <v>21.67920023202896</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05880467593669891</v>
+        <v>0.22704963</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2090327143669128</v>
+        <v>0.36618882</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07736504077911377</v>
+        <v>0.13314928</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2424967544869393</v>
+        <v>0.4764972548300651</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.572399079799652</v>
+        <v>14.02692794799805</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26311,23 +26311,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05930515006184578</v>
+        <v>0.18956469</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2103250324726105</v>
+        <v>0.3344944</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07785610854625702</v>
+        <v>0.12092228</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2435264873927388</v>
+        <v>0.4353902731961961</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.617320865392685</v>
+        <v>12.76279985904694</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26690,19 +26690,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26720,19 +26720,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26814,19 +26814,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03938121886633782</v>
+        <v>0.0429705693840594</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1552905533417446</v>
+        <v>0.1623208061296351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2024067189077477</v>
+        <v>0.3394831920495348</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1984470177814165</v>
+        <v>0.2072934378702312</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>22.34177862743551</v>
+        <v>26.60704682224</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26844,19 +26844,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0393789356070578</v>
+        <v>0.0429441640401486</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1552816944951753</v>
+        <v>0.1622805084741936</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2023994086926715</v>
+        <v>0.3393156057283731</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1984412648797064</v>
+        <v>0.2072297373451711</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>22.34032243057923</v>
+        <v>26.60142740133107</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27388,53 +27388,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0586755077251713</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1969456910864138</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3581337706813017</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2422302782997439</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.91682626685626</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.03870024335957101</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.155308924132958</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.204021274399817</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.1967237742611986</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>22.3531539111753</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.03891873670183514</v>
+        <v>0.0443433440570514</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1675713385860982</v>
+        <v>0.1657659743456336</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2346888227487481</v>
+        <v>0.3445501960345878</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1972783229395342</v>
+        <v>0.2105785935394465</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>24.48542361552281</v>
+        <v>27.18229370725118</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27532,23 +27532,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02718575857579708</v>
+        <v>0.0758757</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1369045078754425</v>
+        <v>0.22954714</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2006592750549316</v>
+        <v>0.567876</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1648810437127236</v>
+        <v>0.2754554401715658</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.55019235610962</v>
+        <v>33.61128866672516</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -27562,23 +27562,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02761807665228844</v>
+        <v>0.039962877</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1409533321857452</v>
+        <v>0.15736619</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2093259990215302</v>
+        <v>0.3821756</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1661868726833995</v>
+        <v>0.1999071699267091</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.13949453830719</v>
+        <v>25.42761266231537</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27594,23 +27594,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02227164059877396</v>
+        <v>0.014054926</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1315842270851135</v>
+        <v>0.10357516</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.189018040895462</v>
+        <v>0.14729877</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1492368607240649</v>
+        <v>0.1185534736407761</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.60239601135254</v>
+        <v>14.2605185508728</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27624,23 +27624,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01770392060279846</v>
+        <v>0.023334853</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1170323938131332</v>
+        <v>0.13934389</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1667130291461945</v>
+        <v>0.19464852</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1330560806682598</v>
+        <v>0.1527574985102734</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.74472635984421</v>
+        <v>20.34376561641693</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1068681180477142</v>
+        <v>0.10652841</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2542704939842224</v>
+        <v>0.25374958</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6445325016975403</v>
+        <v>0.643435</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3269068950752098</v>
+        <v>0.3263869005113371</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>35.38498282432556</v>
+        <v>35.33501327037811</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04947612807154655</v>
+        <v>0.048557382</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1719464957714081</v>
+        <v>0.16910417</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3957046270370483</v>
+        <v>0.39216036</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2224322999736022</v>
+        <v>0.220357396238426</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.76734828948975</v>
+        <v>27.29723453521729</v>
       </c>
     </row>
   </sheetData>
@@ -28004,19 +28004,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.89228775050308</v>
+        <v>33.28195026169174</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28034,19 +28034,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.89228775050308</v>
+        <v>33.28195026169174</v>
       </c>
     </row>
     <row r="10">
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05683083740970286</v>
+        <v>0.0601706537756947</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1893323596850643</v>
+        <v>0.1960021206263792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4904682377202668</v>
+        <v>0.6153923625961515</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2383921924260584</v>
+        <v>0.2452970724971963</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.85651376486168</v>
+        <v>34.78046428063345</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28158,19 +28158,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05681376712594938</v>
+        <v>0.0601972750395109</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1892826425416491</v>
+        <v>0.1960203313433185</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.490581827901119</v>
+        <v>0.6154449912574285</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2383563867949617</v>
+        <v>0.2453513298099501</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>31.84717075012515</v>
+        <v>34.78284706849456</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28702,23 +28702,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05336847545196241</v>
+        <v>0.0808522895557076</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.18477614599861</v>
+        <v>0.2287754539452801</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5083244867554495</v>
+        <v>0.6282359409079961</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2310161800652985</v>
+        <v>0.284345370202695</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.05594485047248</v>
+        <v>41.23214113455158</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -28736,19 +28736,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05747767375307843</v>
+        <v>0.0606451335986931</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1905682672574251</v>
+        <v>0.197158183597521</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4941894224957669</v>
+        <v>0.6198237358195611</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2397450182028366</v>
+        <v>0.2462623267954177</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>32.04034218100848</v>
+        <v>34.95067633616998</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28850,19 +28850,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05183588340878487</v>
+        <v>0.08135649</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1795108765363693</v>
+        <v>0.2205393</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5518321394920349</v>
+        <v>0.8921684600000001</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2276749512106786</v>
+        <v>0.2852305877149917</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.89296317100525</v>
+        <v>36.08451783657074</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28876,23 +28876,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05327447131276131</v>
+        <v>0.121240795</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1812340468168259</v>
+        <v>0.27718025</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.559268057346344</v>
+        <v>1.0635808</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2308126324808963</v>
+        <v>0.3481964885788782</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.09034991264343</v>
+        <v>41.51663780212402</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28908,23 +28908,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03626182675361633</v>
+        <v>0.07071255999999999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1599865555763245</v>
+        <v>0.21574025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2807390689849854</v>
+        <v>0.36042964</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1904253836903482</v>
+        <v>0.2659183313070985</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.42765182256699</v>
+        <v>34.17019844055176</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28938,23 +28938,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03670848160982132</v>
+        <v>0.055198394</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1625800430774689</v>
+        <v>0.17116134</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2844483256340027</v>
+        <v>0.40965348</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1915945761492776</v>
+        <v>0.2349433841633164</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>23.77424240112305</v>
+        <v>26.27070248126984</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07221490144729614</v>
+        <v>0.07203850000000001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2036116868257523</v>
+        <v>0.20373788</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8252372145652771</v>
+        <v>0.8232197999999999</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2687283041424854</v>
+        <v>0.2683998910228605</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.10269320011139</v>
+        <v>34.14292931556702</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06682215631008148</v>
+        <v>0.06733467999999999</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1957864165306091</v>
+        <v>0.19698358</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7767087817192078</v>
+        <v>0.7794641</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2584998187815254</v>
+        <v>0.2594892709715449</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>33.37673246860504</v>
+        <v>33.52097570896149</v>
       </c>
     </row>
   </sheetData>
@@ -29316,19 +29316,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29346,19 +29346,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29440,19 +29440,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04733033673323182</v>
+        <v>0.0512738269388588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1730580335739963</v>
+        <v>0.1800265803508553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3304677903141557</v>
+        <v>0.4952115266580973</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2175553647539674</v>
+        <v>0.2264372472427159</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.71491264553452</v>
+        <v>31.24721015068663</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29470,19 +29470,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04730423024527435</v>
+        <v>0.0512899692945236</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1730006532368493</v>
+        <v>0.1800706823865407</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3303464207948387</v>
+        <v>0.4951010756158267</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2174953568361273</v>
+        <v>0.2264728886523145</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.70598286907697</v>
+        <v>31.25629320573729</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30014,53 +30014,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0735009447892757</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.230678046641563</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5315048164796289</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2711105766827915</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>41.12654699029432</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.04782404615145833</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.1742824912945103</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.3331198320609985</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.2186870964448025</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>27.90827569288556</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.04782404615145833</v>
+        <v>0.0516532041299268</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1742824912945103</v>
+        <v>0.181218605481881</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3331198320609985</v>
+        <v>0.4974699708422888</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2186870964448025</v>
+        <v>0.2272734127211691</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.90827569288556</v>
+        <v>31.4423899937066</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30158,23 +30158,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04031135141849518</v>
+        <v>0.08648987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1528923660516739</v>
+        <v>0.2304447</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3531070053577423</v>
+        <v>0.75323415</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2007768697297953</v>
+        <v>0.2940916033216432</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.40304458141327</v>
+        <v>35.85100769996643</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30188,23 +30188,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04142849519848824</v>
+        <v>0.121141516</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1583081185817719</v>
+        <v>0.30919126</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3577316403388977</v>
+        <v>0.55438566</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2035399105789531</v>
+        <v>0.3480538976540945</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.20909607410431</v>
+        <v>58.52726101875305</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30220,23 +30220,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0334077924489975</v>
+        <v>0.023620443</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1560614258050919</v>
+        <v>0.11818217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2551906406879425</v>
+        <v>0.18612298</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.182777986773565</v>
+        <v>0.1536894382142833</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.95613831281662</v>
+        <v>17.37534701824188</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30250,23 +30250,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03133514150977135</v>
+        <v>0.04124382</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1456320881843567</v>
+        <v>0.17736992</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2425875812768936</v>
+        <v>0.27842915</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1770173480475045</v>
+        <v>0.203085748841524</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.62210887670517</v>
+        <v>25.26158690452576</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07653358578681946</v>
+        <v>0.07118020999999999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2131046205759048</v>
+        <v>0.20851761</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7328976392745972</v>
+        <v>0.7064909</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2766470418906001</v>
+        <v>0.2667961947207624</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.51614773273468</v>
+        <v>33.11426639556885</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.0582992285490036</v>
+        <v>0.05841648</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1851556897163391</v>
+        <v>0.18521616</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6378726363182068</v>
+        <v>0.63899666</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2414523318359208</v>
+        <v>0.2416950109866924</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>30.81084489822388</v>
+        <v>30.813929438591</v>
       </c>
     </row>
   </sheetData>
